--- a/Jogos_da_Semana_FlashScore_2025-02-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-01.xlsx
@@ -869,10 +869,10 @@
         <v>2.75</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U3" t="n">
         <v>1.25</v>
@@ -1580,10 +1580,10 @@
         <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
         <v>2.38</v>
@@ -1655,10 +1655,10 @@
         <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1842,7 +1842,7 @@
         <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
         <v>1.91</v>
@@ -1866,10 +1866,10 @@
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S10" t="n">
         <v>3</v>
@@ -1884,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="W10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y10" t="n">
         <v>6.5</v>
@@ -2136,10 +2136,10 @@
         <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2566,7 +2566,7 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O15" t="n">
         <v>1.13</v>
@@ -2986,10 +2986,10 @@
         <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
@@ -2998,10 +2998,10 @@
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S18" t="n">
         <v>3.5</v>
@@ -3040,7 +3040,7 @@
         <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
         <v>6.5</v>
@@ -3109,13 +3109,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H19" t="n">
         <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.95</v>
@@ -3127,16 +3127,16 @@
         <v>7.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q19" t="n">
         <v>1.95</v>
@@ -3163,13 +3163,13 @@
         <v>1.67</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z19" t="n">
         <v>6</v>
       </c>
       <c r="AA19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB19" t="n">
         <v>9</v>
@@ -3178,28 +3178,28 @@
         <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
         <v>8.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="n">
         <v>501</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="n">
         <v>21</v>
@@ -3404,13 +3404,13 @@
         <v>2.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
         <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3443,10 +3443,10 @@
         <v>3.25</v>
       </c>
       <c r="W21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y21" t="n">
         <v>12</v>
@@ -3464,13 +3464,13 @@
         <v>23</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
@@ -3582,16 +3582,16 @@
         <v>1.33</v>
       </c>
       <c r="U22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W22" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y22" t="n">
         <v>8</v>
@@ -3606,7 +3606,7 @@
         <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD22" t="n">
         <v>26</v>
@@ -3693,7 +3693,7 @@
         <v>5.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.95</v>
@@ -3735,7 +3735,7 @@
         <v>2.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="n">
         <v>34</v>
@@ -3765,7 +3765,7 @@
         <v>41</v>
       </c>
       <c r="AI23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ23" t="n">
         <v>10</v>
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
         <v>4.33</v>
       </c>
       <c r="I26" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J26" t="n">
         <v>2</v>
@@ -4152,10 +4152,10 @@
         <v>1.22</v>
       </c>
       <c r="U26" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V26" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W26" t="n">
         <v>2.63</v>
@@ -4164,13 +4164,13 @@
         <v>1.44</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z26" t="n">
         <v>5.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB26" t="n">
         <v>8.5</v>
@@ -4185,23 +4185,23 @@
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
         <v>29</v>
       </c>
       <c r="AH26" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
         <v>41</v>
       </c>
       <c r="AL26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM26" t="n">
         <v>101</v>
@@ -4394,13 +4394,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I28" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
@@ -4409,13 +4409,13 @@
         <v>1.83</v>
       </c>
       <c r="L28" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.62</v>
@@ -4454,7 +4454,7 @@
         <v>13</v>
       </c>
       <c r="AA28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB28" t="n">
         <v>34</v>
@@ -4466,7 +4466,7 @@
         <v>51</v>
       </c>
       <c r="AE28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF28" t="n">
         <v>6</v>
@@ -4481,28 +4481,28 @@
         <v>101</v>
       </c>
       <c r="AJ28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
       </c>
       <c r="AM28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO28" t="n">
         <v>41</v>
       </c>
       <c r="AP28" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR28" t="n">
         <v>1.94</v>
@@ -4546,7 +4546,7 @@
         <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I29" t="n">
         <v>2.5</v>
@@ -4561,16 +4561,16 @@
         <v>3.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P29" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q29" t="n">
         <v>3.1</v>
@@ -4579,10 +4579,10 @@
         <v>1.36</v>
       </c>
       <c r="S29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U29" t="n">
         <v>1.67</v>
@@ -4615,7 +4615,7 @@
         <v>51</v>
       </c>
       <c r="AE29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF29" t="n">
         <v>6</v>
@@ -4648,10 +4648,10 @@
         <v>41</v>
       </c>
       <c r="AP29" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR29" t="n">
         <v>2.1</v>
@@ -5696,13 +5696,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H38" t="n">
         <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J38" t="n">
         <v>2.5</v>
@@ -5717,7 +5717,7 @@
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.36</v>
@@ -5750,13 +5750,13 @@
         <v>1.75</v>
       </c>
       <c r="Y38" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB38" t="n">
         <v>15</v>
@@ -5765,10 +5765,10 @@
         <v>17</v>
       </c>
       <c r="AD38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF38" t="n">
         <v>6.5</v>
@@ -5777,7 +5777,7 @@
         <v>17</v>
       </c>
       <c r="AH38" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="n">
         <v>401</v>
@@ -5786,7 +5786,7 @@
         <v>11</v>
       </c>
       <c r="AK38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL38" t="n">
         <v>15</v>
@@ -6122,61 +6122,61 @@
         <v>2.55</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J41" t="n">
         <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
+        <v>11</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z41" t="n">
         <v>13</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V41" t="n">
-        <v>3</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X41" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>15</v>
       </c>
       <c r="AA41" t="n">
         <v>10</v>
@@ -6185,19 +6185,19 @@
         <v>26</v>
       </c>
       <c r="AC41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF41" t="n">
         <v>6.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
         <v>41</v>
@@ -6209,7 +6209,7 @@
         <v>10</v>
       </c>
       <c r="AK41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL41" t="n">
         <v>10</v>
@@ -6218,10 +6218,10 @@
         <v>26</v>
       </c>
       <c r="AN41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6699,13 +6699,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H45" t="n">
         <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J45" t="n">
         <v>2.3</v>
@@ -6792,10 +6792,10 @@
         <v>26</v>
       </c>
       <c r="AL45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN45" t="n">
         <v>41</v>
@@ -6813,7 +6813,7 @@
         <v>1.63</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="46">
@@ -8190,109 +8190,109 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="H56" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="I56" t="n">
         <v>3.7</v>
       </c>
       <c r="J56" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K56" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="L56" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="M56" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="N56" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="O56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X56" t="n">
         <v>1.7</v>
       </c>
-      <c r="P56" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>3</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V56" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W56" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X56" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Y56" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="Z56" t="n">
         <v>10.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB56" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC56" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD56" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AE56" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AF56" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AG56" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AI56" t="n">
         <v>101</v>
       </c>
       <c r="AJ56" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AK56" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM56" t="n">
         <v>65</v>
       </c>
       <c r="AN56" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AO56" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
@@ -8925,16 +8925,16 @@
         <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R61" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T61" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U61" t="n">
         <v>1.5</v>
@@ -11159,16 +11159,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H77" t="n">
         <v>3.25</v>
       </c>
       <c r="I77" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K77" t="n">
         <v>2.1</v>
@@ -11177,10 +11177,10 @@
         <v>2.88</v>
       </c>
       <c r="M77" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O77" t="n">
         <v>1.33</v>
@@ -11195,10 +11195,10 @@
         <v>1.75</v>
       </c>
       <c r="S77" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T77" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U77" t="n">
         <v>1.44</v>
@@ -11225,7 +11225,7 @@
         <v>34</v>
       </c>
       <c r="AC77" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD77" t="n">
         <v>34</v>
@@ -11234,7 +11234,7 @@
         <v>9</v>
       </c>
       <c r="AF77" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG77" t="n">
         <v>15</v>
@@ -11469,10 +11469,10 @@
         <v>13</v>
       </c>
       <c r="O79" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P79" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q79" t="n">
         <v>1.75</v>
@@ -11481,10 +11481,10 @@
         <v>2.05</v>
       </c>
       <c r="S79" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T79" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U79" t="n">
         <v>1.36</v>
@@ -11898,10 +11898,10 @@
         <v>4</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R82" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S82" t="n">
         <v>2.75</v>
@@ -12580,7 +12580,7 @@
         <v>2.5</v>
       </c>
       <c r="H87" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I87" t="n">
         <v>2.55</v>
@@ -12601,22 +12601,22 @@
         <v>12</v>
       </c>
       <c r="O87" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P87" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R87" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S87" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T87" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U87" t="n">
         <v>1.36</v>
@@ -12625,10 +12625,10 @@
         <v>3</v>
       </c>
       <c r="W87" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X87" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -13154,7 +13154,7 @@
         <v>3</v>
       </c>
       <c r="J91" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K91" t="n">
         <v>2.25</v>
@@ -13295,7 +13295,7 @@
         <v>11</v>
       </c>
       <c r="J92" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K92" t="n">
         <v>2.5</v>
@@ -13435,7 +13435,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>3.3</v>
@@ -13525,13 +13525,13 @@
         <v>9</v>
       </c>
       <c r="AK93" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL93" t="n">
         <v>12</v>
       </c>
       <c r="AM93" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN93" t="n">
         <v>29</v>
@@ -14360,57 +14360,57 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H100" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I100" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J100" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="K100" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L100" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P100" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R100" t="n">
         <v>1.82</v>
       </c>
-      <c r="R100" t="n">
-        <v>1.78</v>
-      </c>
       <c r="S100" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="T100" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U100" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V100" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="W100" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="X100" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Y100" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z100" t="n">
         <v>8.25</v>
@@ -14419,19 +14419,19 @@
         <v>8.25</v>
       </c>
       <c r="AB100" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC100" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD100" t="n">
         <v>27</v>
       </c>
       <c r="AE100" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF100" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AG100" t="n">
         <v>15.5</v>
@@ -14443,10 +14443,10 @@
         <v>600</v>
       </c>
       <c r="AJ100" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AK100" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL100" t="n">
         <v>13.5</v>
@@ -14803,22 +14803,22 @@
         <v>10</v>
       </c>
       <c r="O103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T103" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P103" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>2</v>
-      </c>
-      <c r="R103" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S103" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T103" t="n">
-        <v>1.3</v>
       </c>
       <c r="U103" t="n">
         <v>1.4</v>
@@ -14938,10 +14938,10 @@
         <v>3.6</v>
       </c>
       <c r="M104" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N104" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O104" t="n">
         <v>1.33</v>
@@ -14950,10 +14950,10 @@
         <v>3.25</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R104" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S104" t="n">
         <v>3.75</v>
@@ -15347,7 +15347,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H107" t="n">
         <v>3.2</v>
@@ -15356,10 +15356,10 @@
         <v>2.05</v>
       </c>
       <c r="J107" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K107" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L107" t="n">
         <v>2.75</v>
@@ -15371,10 +15371,10 @@
         <v>8</v>
       </c>
       <c r="O107" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P107" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q107" t="n">
         <v>2.25</v>
@@ -15431,7 +15431,7 @@
         <v>51</v>
       </c>
       <c r="AI107" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ107" t="n">
         <v>6.5</v>
@@ -15443,7 +15443,7 @@
         <v>9</v>
       </c>
       <c r="AM107" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN107" t="n">
         <v>19</v>
@@ -15629,13 +15629,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H109" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I109" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J109" t="n">
         <v>2.2</v>
@@ -15659,10 +15659,10 @@
         <v>3.5</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R109" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S109" t="n">
         <v>3.25</v>
@@ -15677,10 +15677,10 @@
         <v>3</v>
       </c>
       <c r="W109" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X109" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y109" t="n">
         <v>7</v>
@@ -15701,10 +15701,10 @@
         <v>26</v>
       </c>
       <c r="AE109" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF109" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG109" t="n">
         <v>17</v>
@@ -15713,13 +15713,13 @@
         <v>51</v>
       </c>
       <c r="AI109" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ109" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK109" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL109" t="n">
         <v>17</v>
@@ -15932,7 +15932,7 @@
         <v>1.04</v>
       </c>
       <c r="N111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O111" t="n">
         <v>1.25</v>
@@ -15941,10 +15941,10 @@
         <v>3.75</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R111" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S111" t="n">
         <v>3</v>
@@ -16052,22 +16052,22 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H112" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I112" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J112" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K112" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L112" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M112" t="n">
         <v>1.04</v>
@@ -16082,10 +16082,10 @@
         <v>4.5</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R112" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S112" t="n">
         <v>2.5</v>
@@ -16100,13 +16100,13 @@
         <v>3.4</v>
       </c>
       <c r="W112" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X112" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y112" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z112" t="n">
         <v>7</v>
@@ -16115,19 +16115,19 @@
         <v>8.5</v>
       </c>
       <c r="AB112" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC112" t="n">
         <v>11</v>
       </c>
       <c r="AD112" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE112" t="n">
         <v>13</v>
       </c>
       <c r="AF112" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG112" t="n">
         <v>19</v>
@@ -16136,7 +16136,7 @@
         <v>51</v>
       </c>
       <c r="AI112" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ112" t="n">
         <v>23</v>
@@ -16145,22 +16145,22 @@
         <v>41</v>
       </c>
       <c r="AL112" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM112" t="n">
         <v>101</v>
       </c>
       <c r="AN112" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO112" t="n">
         <v>51</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR112" t="inlineStr"/>
       <c r="AS112" t="inlineStr"/>
@@ -16227,10 +16227,10 @@
         <v>3.75</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R113" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S113" t="n">
         <v>3.25</v>
@@ -16338,7 +16338,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H114" t="n">
         <v>4.2</v>
@@ -16347,7 +16347,7 @@
         <v>5</v>
       </c>
       <c r="J114" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K114" t="n">
         <v>2.2</v>
@@ -16368,10 +16368,10 @@
         <v>3.5</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="R114" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="S114" t="n">
         <v>3.4</v>
@@ -16386,16 +16386,16 @@
         <v>2.75</v>
       </c>
       <c r="W114" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X114" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y114" t="n">
         <v>6.5</v>
       </c>
       <c r="Z114" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA114" t="n">
         <v>8.5</v>
@@ -16419,19 +16419,19 @@
         <v>19</v>
       </c>
       <c r="AH114" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI114" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ114" t="n">
         <v>12</v>
       </c>
       <c r="AK114" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL114" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM114" t="n">
         <v>51</v>
@@ -16479,22 +16479,22 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H115" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I115" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J115" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K115" t="n">
         <v>2.38</v>
       </c>
       <c r="L115" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M115" t="n">
         <v>1.04</v>
@@ -16503,10 +16503,10 @@
         <v>13</v>
       </c>
       <c r="O115" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P115" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q115" t="n">
         <v>1.7</v>
@@ -16539,7 +16539,7 @@
         <v>8</v>
       </c>
       <c r="AA115" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB115" t="n">
         <v>12</v>
@@ -16557,7 +16557,7 @@
         <v>8</v>
       </c>
       <c r="AG115" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH115" t="n">
         <v>51</v>
@@ -16569,7 +16569,7 @@
         <v>15</v>
       </c>
       <c r="AK115" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL115" t="n">
         <v>15</v>
@@ -16620,22 +16620,22 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="H116" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I116" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J116" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="K116" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="L116" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
@@ -16643,10 +16643,10 @@
         <v>1.29</v>
       </c>
       <c r="P116" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R116" t="n">
         <v>1.75</v>
@@ -16655,25 +16655,25 @@
         <v>2.95</v>
       </c>
       <c r="T116" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U116" t="n">
         <v>1.4</v>
       </c>
       <c r="V116" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="W116" t="n">
         <v>1.7</v>
       </c>
       <c r="X116" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Y116" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Z116" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AA116" t="n">
         <v>8.5</v>
@@ -16682,22 +16682,22 @@
         <v>19</v>
       </c>
       <c r="AC116" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD116" t="n">
         <v>26</v>
       </c>
       <c r="AE116" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF116" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AG116" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH116" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI116" t="n">
         <v>500</v>
@@ -16706,7 +16706,7 @@
         <v>10</v>
       </c>
       <c r="AK116" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL116" t="n">
         <v>11.75</v>
@@ -17744,13 +17744,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H124" t="n">
         <v>3.1</v>
       </c>
       <c r="I124" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J124" t="n">
         <v>3</v>
@@ -17759,7 +17759,7 @@
         <v>1.91</v>
       </c>
       <c r="L124" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M124" t="n">
         <v>1.11</v>
@@ -17792,22 +17792,22 @@
         <v>2.2</v>
       </c>
       <c r="W124" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X124" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y124" t="n">
         <v>5.5</v>
       </c>
       <c r="Z124" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA124" t="n">
         <v>10</v>
       </c>
       <c r="AB124" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC124" t="n">
         <v>21</v>
@@ -17816,7 +17816,7 @@
         <v>41</v>
       </c>
       <c r="AE124" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF124" t="n">
         <v>6</v>
@@ -17829,19 +17829,19 @@
       </c>
       <c r="AI124" t="inlineStr"/>
       <c r="AJ124" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK124" t="n">
         <v>17</v>
       </c>
       <c r="AL124" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM124" t="n">
         <v>41</v>
       </c>
       <c r="AN124" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO124" t="n">
         <v>51</v>
@@ -17911,16 +17911,16 @@
         <v>9</v>
       </c>
       <c r="O125" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P125" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R125" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S125" t="n">
         <v>4</v>
@@ -18052,16 +18052,16 @@
         <v>13</v>
       </c>
       <c r="O126" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P126" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R126" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S126" t="n">
         <v>3.4</v>
@@ -18328,10 +18328,10 @@
         <v>5</v>
       </c>
       <c r="M128" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N128" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O128" t="n">
         <v>1.36</v>
@@ -19314,7 +19314,7 @@
         <v>2.25</v>
       </c>
       <c r="J135" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K135" t="n">
         <v>2.2</v>
@@ -19335,10 +19335,10 @@
         <v>4</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R135" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S135" t="n">
         <v>3</v>
@@ -19368,7 +19368,7 @@
         <v>11</v>
       </c>
       <c r="AB135" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC135" t="n">
         <v>23</v>
@@ -20578,52 +20578,52 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H144" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I144" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="J144" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="K144" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L144" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="M144" t="n">
         <v>1.06</v>
       </c>
       <c r="N144" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O144" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P144" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R144" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S144" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T144" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="U144" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="V144" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="W144" t="n">
         <v>1.85</v>
@@ -20632,31 +20632,31 @@
         <v>1.85</v>
       </c>
       <c r="Y144" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z144" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AA144" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB144" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC144" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD144" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE144" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF144" t="n">
         <v>6.9</v>
       </c>
       <c r="AG144" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH144" t="n">
         <v>80</v>
@@ -20665,22 +20665,22 @@
         <v>700</v>
       </c>
       <c r="AJ144" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AK144" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AL144" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AM144" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AN144" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AO144" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP144" t="inlineStr"/>
       <c r="AQ144" t="inlineStr"/>
@@ -21016,7 +21016,7 @@
         <v>2.42</v>
       </c>
       <c r="L147" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M147" t="n">
         <v>1.04</v>
@@ -21025,19 +21025,19 @@
         <v>8.5</v>
       </c>
       <c r="O147" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P147" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q147" t="n">
         <v>1.65</v>
       </c>
       <c r="R147" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S147" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="T147" t="n">
         <v>1.44</v>
@@ -21058,7 +21058,7 @@
         <v>6.9</v>
       </c>
       <c r="Z147" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AA147" t="n">
         <v>8.75</v>
@@ -21070,7 +21070,7 @@
         <v>11.25</v>
       </c>
       <c r="AD147" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE147" t="n">
         <v>8.5</v>
@@ -21088,7 +21088,7 @@
         <v>1000</v>
       </c>
       <c r="AJ147" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK147" t="n">
         <v>60</v>
@@ -21160,10 +21160,10 @@
         <v>3.5</v>
       </c>
       <c r="M148" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N148" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O148" t="n">
         <v>1.57</v>
@@ -21172,10 +21172,10 @@
         <v>2.25</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R148" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S148" t="n">
         <v>6</v>
@@ -21303,22 +21303,22 @@
         <v>5.5</v>
       </c>
       <c r="M149" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N149" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O149" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P149" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R149" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S149" t="n">
         <v>5.5</v>
@@ -21390,10 +21390,10 @@
       <c r="AP149" t="inlineStr"/>
       <c r="AQ149" t="inlineStr"/>
       <c r="AR149" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="150">
@@ -21458,16 +21458,16 @@
         <v>3.5</v>
       </c>
       <c r="Q150" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R150" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S150" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T150" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U150" t="n">
         <v>1.4</v>
@@ -22704,67 +22704,67 @@
         <v>2.35</v>
       </c>
       <c r="H159" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I159" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="J159" t="n">
         <v>2.92</v>
       </c>
       <c r="K159" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N159" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P159" t="n">
         <v>3.5</v>
       </c>
-      <c r="M159" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N159" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O159" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P159" t="n">
-        <v>3.35</v>
-      </c>
       <c r="Q159" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="R159" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S159" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="T159" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="U159" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V159" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="W159" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X159" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Y159" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z159" t="n">
         <v>12.5</v>
       </c>
       <c r="AA159" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB159" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC159" t="n">
         <v>18</v>
@@ -22773,10 +22773,10 @@
         <v>25</v>
       </c>
       <c r="AE159" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AF159" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AG159" t="n">
         <v>12.5</v>
@@ -22788,7 +22788,7 @@
         <v>400</v>
       </c>
       <c r="AJ159" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK159" t="n">
         <v>15</v>
@@ -22797,13 +22797,13 @@
         <v>10.25</v>
       </c>
       <c r="AM159" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN159" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO159" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AP159" t="inlineStr"/>
       <c r="AQ159" t="inlineStr"/>
@@ -23503,10 +23503,10 @@
         <v>4</v>
       </c>
       <c r="M165" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N165" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O165" t="n">
         <v>1.44</v>
@@ -23770,41 +23770,111 @@
           <t>Puerto Cabello</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="inlineStr"/>
-      <c r="T167" t="inlineStr"/>
-      <c r="U167" t="inlineStr"/>
-      <c r="V167" t="inlineStr"/>
-      <c r="W167" t="inlineStr"/>
-      <c r="X167" t="inlineStr"/>
-      <c r="Y167" t="inlineStr"/>
-      <c r="Z167" t="inlineStr"/>
-      <c r="AA167" t="inlineStr"/>
-      <c r="AB167" t="inlineStr"/>
-      <c r="AC167" t="inlineStr"/>
-      <c r="AD167" t="inlineStr"/>
-      <c r="AE167" t="inlineStr"/>
-      <c r="AF167" t="inlineStr"/>
-      <c r="AG167" t="inlineStr"/>
-      <c r="AH167" t="inlineStr"/>
-      <c r="AI167" t="inlineStr"/>
-      <c r="AJ167" t="inlineStr"/>
-      <c r="AK167" t="inlineStr"/>
-      <c r="AL167" t="inlineStr"/>
-      <c r="AM167" t="inlineStr"/>
-      <c r="AN167" t="inlineStr"/>
-      <c r="AO167" t="inlineStr"/>
+      <c r="G167" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J167" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L167" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N167" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P167" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S167" t="n">
+        <v>4</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U167" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W167" t="n">
+        <v>2</v>
+      </c>
+      <c r="X167" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>40</v>
+      </c>
       <c r="AP167" t="inlineStr"/>
       <c r="AQ167" t="inlineStr"/>
       <c r="AR167" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-01.xlsx
@@ -692,46 +692,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
         <v>3.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U2" t="n">
         <v>1.4</v>
@@ -740,31 +740,31 @@
         <v>2.75</v>
       </c>
       <c r="W2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>7</v>
@@ -779,19 +779,19 @@
         <v>251</v>
       </c>
       <c r="AJ2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL2" t="n">
         <v>11</v>
       </c>
-      <c r="AK2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>12</v>
-      </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
         <v>34</v>
@@ -863,10 +863,10 @@
         <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S3" t="n">
         <v>2.2</v>
@@ -1137,10 +1137,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1176,7 +1176,7 @@
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>9.5</v>
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
         <v>4.75</v>
@@ -1275,7 +1275,7 @@
         <v>2.38</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1296,10 +1296,10 @@
         <v>2.3</v>
       </c>
       <c r="S6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U6" t="n">
         <v>1.3</v>
@@ -1326,7 +1326,7 @@
         <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
         <v>23</v>
@@ -1344,7 +1344,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1353,22 +1353,22 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM6" t="n">
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="n">
         <v>41</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1417,34 +1417,34 @@
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
         <v>2.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U7" t="n">
         <v>1.33</v>
@@ -1453,16 +1453,16 @@
         <v>3.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y7" t="n">
         <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
@@ -1474,13 +1474,13 @@
         <v>26</v>
       </c>
       <c r="AD7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
@@ -1492,7 +1492,7 @@
         <v>151</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
         <v>13</v>
@@ -1504,10 +1504,10 @@
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
         <v>2</v>
@@ -1655,10 +1655,10 @@
         <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1995,10 +1995,10 @@
         <v>17</v>
       </c>
       <c r="M11" t="n">
+        <v>51</v>
+      </c>
+      <c r="N11" t="n">
         <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>34</v>
       </c>
       <c r="O11" t="n">
         <v>1.04</v>
@@ -2061,13 +2061,13 @@
         <v>101</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AJ11" t="n">
         <v>51</v>
       </c>
       <c r="AK11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL11" t="n">
         <v>51</v>
@@ -2118,16 +2118,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
@@ -2142,22 +2142,22 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U12" t="n">
         <v>1.36</v>
@@ -2205,7 +2205,7 @@
         <v>151</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK12" t="n">
         <v>13</v>
@@ -2220,7 +2220,7 @@
         <v>19</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2364,10 +2364,10 @@
         <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2404,28 +2404,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2470,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="n">
         <v>34</v>
@@ -2479,10 +2479,10 @@
         <v>8.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
         <v>51</v>
@@ -2497,13 +2497,13 @@
         <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>34</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
         <v>41</v>
@@ -2569,10 +2569,10 @@
         <v>19</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q15" t="n">
         <v>1.44</v>
@@ -2704,10 +2704,10 @@
         <v>2.88</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
@@ -2827,28 +2827,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -2869,10 +2869,10 @@
         <v>1.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W17" t="n">
         <v>1.91</v>
@@ -2881,31 +2881,31 @@
         <v>1.91</v>
       </c>
       <c r="Y17" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE17" t="n">
         <v>7.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>8</v>
-      </c>
       <c r="AF17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
         <v>51</v>
@@ -2914,19 +2914,19 @@
         <v>301</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL17" t="n">
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO17" t="n">
         <v>41</v>
@@ -2992,22 +2992,22 @@
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U18" t="n">
         <v>1.44</v>
@@ -3109,22 +3109,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -3133,16 +3133,16 @@
         <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R19" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S19" t="n">
         <v>3.4</v>
@@ -3157,28 +3157,28 @@
         <v>2.75</v>
       </c>
       <c r="W19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y19" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z19" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z19" t="n">
-        <v>6</v>
-      </c>
       <c r="AA19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC19" t="n">
         <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>10</v>
@@ -3193,7 +3193,7 @@
         <v>67</v>
       </c>
       <c r="AI19" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
         <v>2.6</v>
@@ -3272,10 +3272,10 @@
         <v>4.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
         <v>1.33</v>
@@ -3314,19 +3314,19 @@
         <v>8.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
         <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
         <v>6.5</v>
@@ -3540,28 +3540,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
@@ -3570,22 +3570,22 @@
         <v>3.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>1.75</v>
@@ -3594,16 +3594,16 @@
         <v>2</v>
       </c>
       <c r="Y22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA22" t="n">
         <v>8.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
         <v>15</v>
@@ -3615,13 +3615,13 @@
         <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="n">
         <v>201</v>
@@ -3639,7 +3639,7 @@
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
         <v>34</v>
@@ -3828,7 +3828,7 @@
         <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J24" t="n">
         <v>3.4</v>
@@ -3840,10 +3840,10 @@
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.62</v>
@@ -3858,10 +3858,10 @@
         <v>1.4</v>
       </c>
       <c r="S24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U24" t="n">
         <v>1.67</v>
@@ -3876,7 +3876,7 @@
         <v>1.57</v>
       </c>
       <c r="Y24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z24" t="n">
         <v>10</v>
@@ -3885,7 +3885,7 @@
         <v>11</v>
       </c>
       <c r="AB24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
         <v>26</v>
@@ -4001,10 +4001,10 @@
         <v>2.75</v>
       </c>
       <c r="S25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U25" t="n">
         <v>1.25</v>
@@ -4013,10 +4013,10 @@
         <v>3.75</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X25" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y25" t="n">
         <v>9</v>
@@ -4037,13 +4037,13 @@
         <v>26</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
         <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH25" t="n">
         <v>67</v>
@@ -4052,7 +4052,7 @@
         <v>351</v>
       </c>
       <c r="AJ25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK25" t="n">
         <v>51</v>
@@ -4061,7 +4061,7 @@
         <v>29</v>
       </c>
       <c r="AM25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN25" t="n">
         <v>67</v>
@@ -4249,16 +4249,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K27" t="n">
         <v>2.63</v>
@@ -4279,10 +4279,10 @@
         <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S27" t="n">
         <v>2.38</v>
@@ -4309,10 +4309,10 @@
         <v>41</v>
       </c>
       <c r="AA27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB27" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="n">
         <v>51</v>
@@ -4351,13 +4351,13 @@
         <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
         <v>2.8</v>
       </c>
       <c r="I29" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J29" t="n">
         <v>4.33</v>
@@ -4558,13 +4558,13 @@
         <v>1.8</v>
       </c>
       <c r="L29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.67</v>
@@ -4573,10 +4573,10 @@
         <v>2.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="n">
         <v>7</v>
@@ -4603,7 +4603,7 @@
         <v>15</v>
       </c>
       <c r="AA29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB29" t="n">
         <v>41</v>
@@ -4621,7 +4621,7 @@
         <v>6</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>101</v>
@@ -4633,13 +4633,13 @@
         <v>5.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL29" t="n">
         <v>11</v>
       </c>
       <c r="AM29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
         <v>29</v>
@@ -4651,7 +4651,7 @@
         <v>5.6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR29" t="n">
         <v>2.1</v>
@@ -4710,10 +4710,10 @@
         <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O30" t="n">
         <v>1.5</v>
@@ -4803,10 +4803,10 @@
         <v>1.23</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="31">
@@ -4889,16 +4889,16 @@
         <v>3.4</v>
       </c>
       <c r="W31" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
       </c>
       <c r="Z31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA31" t="n">
         <v>8.5</v>
@@ -4907,7 +4907,7 @@
         <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD31" t="n">
         <v>21</v>
@@ -5010,10 +5010,10 @@
         <v>21</v>
       </c>
       <c r="O32" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q32" t="n">
         <v>1.36</v>
@@ -5149,28 +5149,28 @@
         <v>3.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U33" t="n">
         <v>1.33</v>
@@ -5694,10 +5694,10 @@
         <v>1.73</v>
       </c>
       <c r="H37" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I37" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J37" t="n">
         <v>2.38</v>
@@ -5709,28 +5709,28 @@
         <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T37" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.29</v>
       </c>
       <c r="U37" t="n">
         <v>1.4</v>
@@ -5739,13 +5739,13 @@
         <v>2.75</v>
       </c>
       <c r="W37" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X37" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z37" t="n">
         <v>8</v>
@@ -5760,13 +5760,13 @@
         <v>15</v>
       </c>
       <c r="AD37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE37" t="n">
         <v>10</v>
       </c>
       <c r="AF37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG37" t="n">
         <v>17</v>
@@ -5775,10 +5775,10 @@
         <v>51</v>
       </c>
       <c r="AI37" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK37" t="n">
         <v>23</v>
@@ -5976,7 +5976,7 @@
         <v>1.25</v>
       </c>
       <c r="H39" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I39" t="n">
         <v>10</v>
@@ -5985,7 +5985,7 @@
         <v>1.67</v>
       </c>
       <c r="K39" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L39" t="n">
         <v>8</v>
@@ -5994,31 +5994,31 @@
         <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O39" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R39" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S39" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U39" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V39" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W39" t="n">
         <v>1.8</v>
@@ -6027,7 +6027,7 @@
         <v>1.95</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z39" t="n">
         <v>7.5</v>
@@ -6045,13 +6045,13 @@
         <v>23</v>
       </c>
       <c r="AE39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG39" t="n">
         <v>19</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>21</v>
       </c>
       <c r="AH39" t="n">
         <v>51</v>
@@ -6060,16 +6060,16 @@
         <v>201</v>
       </c>
       <c r="AJ39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK39" t="n">
         <v>51</v>
       </c>
       <c r="AL39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM39" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN39" t="n">
         <v>51</v>
@@ -6135,7 +6135,7 @@
         <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O40" t="n">
         <v>1.22</v>
@@ -6285,16 +6285,16 @@
         <v>3.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R41" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S41" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T41" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U41" t="n">
         <v>1.4</v>
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
         <v>2.88</v>
@@ -6552,13 +6552,13 @@
         <v>1.95</v>
       </c>
       <c r="L43" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N43" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O43" t="n">
         <v>1.44</v>
@@ -6567,22 +6567,22 @@
         <v>2.63</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S43" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T43" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U43" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V43" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W43" t="n">
         <v>2.1</v>
@@ -6600,7 +6600,7 @@
         <v>9.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC43" t="n">
         <v>21</v>
@@ -6609,7 +6609,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF43" t="n">
         <v>6</v>
@@ -6639,19 +6639,19 @@
         <v>41</v>
       </c>
       <c r="AO43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP43" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR43" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="44">
@@ -6710,16 +6710,16 @@
         <v>6.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P44" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R44" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S44" t="n">
         <v>5.5</v>
@@ -6791,16 +6791,16 @@
         <v>41</v>
       </c>
       <c r="AP44" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR44" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="45">
@@ -7550,46 +7550,46 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="H50" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I50" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K50" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L50" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O50" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P50" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R50" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S50" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T50" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U50" t="n">
         <v>1.4</v>
@@ -7598,58 +7598,58 @@
         <v>2.75</v>
       </c>
       <c r="W50" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X50" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA50" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD50" t="n">
         <v>26</v>
       </c>
       <c r="AE50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI50" t="n">
         <v>201</v>
       </c>
       <c r="AJ50" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK50" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL50" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM50" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN50" t="n">
         <v>34</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>23</v>
       </c>
       <c r="AO50" t="n">
         <v>34</v>
@@ -7694,10 +7694,10 @@
         <v>2.7</v>
       </c>
       <c r="H51" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J51" t="n">
         <v>3.4</v>
@@ -7706,46 +7706,46 @@
         <v>2.1</v>
       </c>
       <c r="L51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T51" t="n">
         <v>1.25</v>
       </c>
-      <c r="P51" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S51" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.33</v>
-      </c>
       <c r="U51" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V51" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W51" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="X51" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Y51" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z51" t="n">
         <v>13</v>
@@ -7757,37 +7757,37 @@
         <v>29</v>
       </c>
       <c r="AC51" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE51" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG51" t="n">
         <v>13</v>
       </c>
       <c r="AH51" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI51" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL51" t="n">
         <v>10</v>
       </c>
       <c r="AM51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN51" t="n">
         <v>21</v>
@@ -7991,10 +7991,10 @@
         <v>6</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O53" t="n">
         <v>1.36</v>
@@ -8003,16 +8003,16 @@
         <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R53" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T53" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U53" t="n">
         <v>1.44</v>
@@ -8024,7 +8024,7 @@
         <v>2.05</v>
       </c>
       <c r="X53" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y53" t="n">
         <v>6</v>
@@ -8396,22 +8396,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H56" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="I56" t="n">
-        <v>3.65</v>
+        <v>4.05</v>
       </c>
       <c r="J56" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="K56" t="n">
         <v>1.78</v>
       </c>
       <c r="L56" t="n">
-        <v>4.35</v>
+        <v>4.75</v>
       </c>
       <c r="M56" t="n">
         <v>1.16</v>
@@ -8426,16 +8426,16 @@
         <v>2.12</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="R56" t="n">
         <v>1.37</v>
       </c>
       <c r="S56" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T56" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="U56" t="n">
         <v>1.65</v>
@@ -8444,25 +8444,25 @@
         <v>2.12</v>
       </c>
       <c r="W56" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X56" t="n">
         <v>1.6</v>
       </c>
       <c r="Y56" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Z56" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AA56" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB56" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AC56" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AD56" t="n">
         <v>50</v>
@@ -8474,31 +8474,31 @@
         <v>5.3</v>
       </c>
       <c r="AG56" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH56" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI56" t="n">
         <v>101</v>
       </c>
       <c r="AJ56" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AK56" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL56" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AM56" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AN56" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AO56" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
@@ -8822,19 +8822,19 @@
         <v>5</v>
       </c>
       <c r="H59" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I59" t="n">
         <v>1.67</v>
       </c>
       <c r="J59" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K59" t="n">
         <v>2.25</v>
       </c>
       <c r="L59" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M59" t="n">
         <v>1.05</v>
@@ -8897,7 +8897,7 @@
         <v>7</v>
       </c>
       <c r="AG59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH59" t="n">
         <v>51</v>
@@ -9101,19 +9101,19 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H61" t="n">
         <v>3.1</v>
       </c>
       <c r="I61" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J61" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L61" t="n">
         <v>2.88</v>
@@ -9149,10 +9149,10 @@
         <v>2.5</v>
       </c>
       <c r="W61" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y61" t="n">
         <v>9.5</v>
@@ -9194,7 +9194,7 @@
         <v>9.5</v>
       </c>
       <c r="AL61" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM61" t="n">
         <v>19</v>
@@ -9272,10 +9272,10 @@
         <v>3.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R62" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S62" t="n">
         <v>3.5</v>
@@ -9389,16 +9389,16 @@
         <v>5.5</v>
       </c>
       <c r="I63" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J63" t="n">
         <v>1.73</v>
       </c>
       <c r="K63" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L63" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M63" t="n">
         <v>1.04</v>
@@ -9413,37 +9413,37 @@
         <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R63" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="S63" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V63" t="n">
         <v>3</v>
       </c>
-      <c r="T63" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U63" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V63" t="n">
-        <v>3.25</v>
-      </c>
       <c r="W63" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="X63" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Y63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z63" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB63" t="n">
         <v>7.5</v>
@@ -9452,37 +9452,37 @@
         <v>12</v>
       </c>
       <c r="AD63" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG63" t="n">
         <v>29</v>
       </c>
-      <c r="AE63" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>26</v>
-      </c>
       <c r="AH63" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI63" t="n">
         <v>501</v>
       </c>
       <c r="AJ63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK63" t="n">
         <v>41</v>
       </c>
       <c r="AL63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM63" t="n">
         <v>126</v>
       </c>
       <c r="AN63" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AO63" t="n">
         <v>67</v>
@@ -9672,58 +9672,58 @@
         <v>5</v>
       </c>
       <c r="H65" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I65" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J65" t="n">
         <v>5.5</v>
       </c>
       <c r="K65" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L65" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M65" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O65" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P65" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W65" t="n">
         <v>2.2</v>
       </c>
-      <c r="R65" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S65" t="n">
-        <v>4</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U65" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V65" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W65" t="n">
-        <v>2</v>
-      </c>
       <c r="X65" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="Y65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z65" t="n">
         <v>23</v>
@@ -9741,42 +9741,46 @@
         <v>51</v>
       </c>
       <c r="AE65" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF65" t="n">
         <v>6.5</v>
       </c>
       <c r="AG65" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>501</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN65" t="n">
         <v>19</v>
       </c>
-      <c r="AH65" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>451</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>15</v>
-      </c>
       <c r="AO65" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AP65" t="inlineStr"/>
       <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="inlineStr"/>
-      <c r="AS65" t="inlineStr"/>
+      <c r="AR65" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9810,13 +9814,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H66" t="n">
         <v>3.25</v>
       </c>
       <c r="I66" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J66" t="n">
         <v>2.75</v>
@@ -9828,16 +9832,16 @@
         <v>4.33</v>
       </c>
       <c r="M66" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N66" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O66" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P66" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q66" t="n">
         <v>2.2</v>
@@ -9846,28 +9850,28 @@
         <v>1.67</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T66" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U66" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V66" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W66" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X66" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA66" t="n">
         <v>9</v>
@@ -9879,16 +9883,16 @@
         <v>19</v>
       </c>
       <c r="AD66" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE66" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF66" t="n">
         <v>6</v>
       </c>
       <c r="AG66" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH66" t="n">
         <v>51</v>
@@ -9900,7 +9904,7 @@
         <v>9.5</v>
       </c>
       <c r="AK66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL66" t="n">
         <v>13</v>
@@ -9951,13 +9955,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H67" t="n">
         <v>3.4</v>
       </c>
       <c r="I67" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J67" t="n">
         <v>3.25</v>
@@ -10005,7 +10009,7 @@
         <v>2</v>
       </c>
       <c r="Y67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z67" t="n">
         <v>13</v>
@@ -10023,16 +10027,16 @@
         <v>29</v>
       </c>
       <c r="AE67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF67" t="n">
         <v>6.5</v>
       </c>
       <c r="AG67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH67" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI67" t="n">
         <v>201</v>
@@ -10092,7 +10096,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H68" t="n">
         <v>4.2</v>
@@ -10110,10 +10114,10 @@
         <v>5</v>
       </c>
       <c r="M68" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O68" t="n">
         <v>1.22</v>
@@ -10122,10 +10126,10 @@
         <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R68" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S68" t="n">
         <v>2.75</v>
@@ -10140,10 +10144,10 @@
         <v>3.25</v>
       </c>
       <c r="W68" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X68" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -10158,7 +10162,7 @@
         <v>12</v>
       </c>
       <c r="AC68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD68" t="n">
         <v>23</v>
@@ -10167,7 +10171,7 @@
         <v>13</v>
       </c>
       <c r="AF68" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG68" t="n">
         <v>17</v>
@@ -10191,7 +10195,7 @@
         <v>51</v>
       </c>
       <c r="AN68" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO68" t="n">
         <v>41</v>
@@ -10233,7 +10237,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>3.7</v>
@@ -10290,13 +10294,13 @@
         <v>5.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA69" t="n">
         <v>8.5</v>
       </c>
       <c r="AB69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC69" t="n">
         <v>15</v>
@@ -10323,16 +10327,16 @@
         <v>12</v>
       </c>
       <c r="AK69" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM69" t="n">
         <v>67</v>
       </c>
       <c r="AN69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO69" t="n">
         <v>51</v>
@@ -10402,16 +10406,16 @@
         <v>11</v>
       </c>
       <c r="O70" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P70" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R70" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S70" t="n">
         <v>3.4</v>
@@ -10660,16 +10664,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H72" t="n">
         <v>3.4</v>
       </c>
       <c r="I72" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J72" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K72" t="n">
         <v>2.2</v>
@@ -10684,16 +10688,16 @@
         <v>11</v>
       </c>
       <c r="O72" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P72" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R72" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S72" t="n">
         <v>3.25</v>
@@ -10720,7 +10724,7 @@
         <v>21</v>
       </c>
       <c r="AA72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB72" t="n">
         <v>41</v>
@@ -10747,10 +10751,10 @@
         <v>251</v>
       </c>
       <c r="AJ72" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK72" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL72" t="n">
         <v>8.5</v>
@@ -10972,10 +10976,10 @@
         <v>2.75</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R74" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S74" t="n">
         <v>4.33</v>
@@ -11083,22 +11087,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H75" t="n">
         <v>3.5</v>
       </c>
       <c r="I75" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J75" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K75" t="n">
         <v>2.2</v>
       </c>
       <c r="L75" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M75" t="n">
         <v>1.05</v>
@@ -11131,10 +11135,10 @@
         <v>2.75</v>
       </c>
       <c r="W75" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X75" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y75" t="n">
         <v>13</v>
@@ -11143,19 +11147,19 @@
         <v>23</v>
       </c>
       <c r="AA75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB75" t="n">
         <v>51</v>
       </c>
       <c r="AC75" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD75" t="n">
         <v>41</v>
       </c>
       <c r="AE75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF75" t="n">
         <v>7</v>
@@ -11167,19 +11171,19 @@
         <v>51</v>
       </c>
       <c r="AI75" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ75" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK75" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL75" t="n">
         <v>8.5</v>
       </c>
       <c r="AM75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN75" t="n">
         <v>15</v>
@@ -11365,46 +11369,46 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>3.25</v>
       </c>
       <c r="I77" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J77" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K77" t="n">
         <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
       </c>
       <c r="N77" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O77" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P77" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q77" t="n">
         <v>2.05</v>
       </c>
       <c r="R77" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S77" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T77" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U77" t="n">
         <v>1.44</v>
@@ -11419,19 +11423,19 @@
         <v>1.95</v>
       </c>
       <c r="Y77" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z77" t="n">
         <v>15</v>
       </c>
       <c r="AA77" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB77" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC77" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD77" t="n">
         <v>34</v>
@@ -11452,16 +11456,16 @@
         <v>251</v>
       </c>
       <c r="AJ77" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK77" t="n">
         <v>11</v>
       </c>
       <c r="AL77" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN77" t="n">
         <v>19</v>
@@ -11509,7 +11513,7 @@
         <v>2.7</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I78" t="n">
         <v>2.88</v>
@@ -11518,16 +11522,16 @@
         <v>3.6</v>
       </c>
       <c r="K78" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L78" t="n">
         <v>3.75</v>
       </c>
       <c r="M78" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N78" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O78" t="n">
         <v>1.53</v>
@@ -11572,7 +11576,7 @@
         <v>29</v>
       </c>
       <c r="AC78" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD78" t="n">
         <v>41</v>
@@ -11613,10 +11617,10 @@
       <c r="AP78" t="inlineStr"/>
       <c r="AQ78" t="inlineStr"/>
       <c r="AR78" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="79">
@@ -11651,22 +11655,22 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H79" t="n">
         <v>3.75</v>
       </c>
       <c r="I79" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J79" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K79" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L79" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M79" t="n">
         <v>1.04</v>
@@ -11711,16 +11715,16 @@
         <v>23</v>
       </c>
       <c r="AA79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB79" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC79" t="n">
         <v>34</v>
       </c>
       <c r="AD79" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE79" t="n">
         <v>12</v>
@@ -11738,7 +11742,7 @@
         <v>201</v>
       </c>
       <c r="AJ79" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK79" t="n">
         <v>8.5</v>
@@ -11747,7 +11751,7 @@
         <v>8.5</v>
       </c>
       <c r="AM79" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN79" t="n">
         <v>13</v>
@@ -12077,58 +12081,58 @@
         <v>4.5</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I82" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="J82" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L82" t="n">
         <v>2.3</v>
       </c>
-      <c r="L82" t="n">
-        <v>2.25</v>
-      </c>
       <c r="M82" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N82" t="n">
+        <v>11</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Y82" t="n">
         <v>13</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P82" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R82" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S82" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T82" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U82" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V82" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W82" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X82" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>15</v>
       </c>
       <c r="Z82" t="n">
         <v>23</v>
@@ -12146,7 +12150,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF82" t="n">
         <v>7.5</v>
@@ -12161,7 +12165,7 @@
         <v>201</v>
       </c>
       <c r="AJ82" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK82" t="n">
         <v>8.5</v>
@@ -12215,19 +12219,19 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H83" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I83" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J83" t="n">
         <v>2.3</v>
       </c>
       <c r="K83" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L83" t="n">
         <v>4.75</v>
@@ -12245,10 +12249,10 @@
         <v>4</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R83" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S83" t="n">
         <v>2.75</v>
@@ -12269,7 +12273,7 @@
         <v>2</v>
       </c>
       <c r="Y83" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z83" t="n">
         <v>8.5</v>
@@ -12290,13 +12294,13 @@
         <v>12</v>
       </c>
       <c r="AF83" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG83" t="n">
         <v>15</v>
       </c>
       <c r="AH83" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI83" t="n">
         <v>201</v>
@@ -12356,10 +12360,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I84" t="n">
         <v>1.8</v>
@@ -12374,16 +12378,16 @@
         <v>2.38</v>
       </c>
       <c r="M84" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N84" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O84" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P84" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q84" t="n">
         <v>1.7</v>
@@ -12392,10 +12396,10 @@
         <v>2.1</v>
       </c>
       <c r="S84" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T84" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U84" t="n">
         <v>1.33</v>
@@ -12458,7 +12462,7 @@
         <v>13</v>
       </c>
       <c r="AO84" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP84" t="inlineStr"/>
       <c r="AQ84" t="inlineStr"/>
@@ -12515,10 +12519,10 @@
         <v>3.2</v>
       </c>
       <c r="M85" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N85" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O85" t="n">
         <v>1.14</v>
@@ -12527,10 +12531,10 @@
         <v>5.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R85" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S85" t="n">
         <v>2.2</v>
@@ -12539,10 +12543,10 @@
         <v>1.62</v>
       </c>
       <c r="U85" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V85" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W85" t="n">
         <v>1.44</v>
@@ -12551,7 +12555,7 @@
         <v>2.63</v>
       </c>
       <c r="Y85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z85" t="n">
         <v>15</v>
@@ -12578,10 +12582,10 @@
         <v>11</v>
       </c>
       <c r="AH85" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI85" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ85" t="n">
         <v>15</v>
@@ -12924,13 +12928,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="H88" t="n">
         <v>3.4</v>
       </c>
       <c r="I88" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="J88" t="n">
         <v>3.25</v>
@@ -12954,10 +12958,10 @@
         <v>3.75</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R88" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S88" t="n">
         <v>3</v>
@@ -13065,16 +13069,16 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>4.1</v>
       </c>
       <c r="I89" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J89" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K89" t="n">
         <v>2.4</v>
@@ -13122,13 +13126,13 @@
         <v>9</v>
       </c>
       <c r="Z89" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA89" t="n">
         <v>8.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC89" t="n">
         <v>12</v>
@@ -13152,10 +13156,10 @@
         <v>151</v>
       </c>
       <c r="AJ89" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK89" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL89" t="n">
         <v>15</v>
@@ -13510,10 +13514,10 @@
         <v>8.5</v>
       </c>
       <c r="M92" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N92" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O92" t="n">
         <v>1.2</v>
@@ -13597,13 +13601,13 @@
         <v>67</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.73</v>
       </c>
       <c r="AR92" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AS92" t="n">
         <v>3.45</v>
@@ -13790,16 +13794,16 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I94" t="n">
         <v>3.7</v>
       </c>
-      <c r="I94" t="n">
-        <v>4</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K94" t="n">
         <v>2.4</v>
@@ -13838,19 +13842,19 @@
         <v>3.5</v>
       </c>
       <c r="W94" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X94" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z94" t="n">
         <v>11</v>
       </c>
       <c r="AA94" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB94" t="n">
         <v>17</v>
@@ -13877,7 +13881,7 @@
         <v>101</v>
       </c>
       <c r="AJ94" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK94" t="n">
         <v>23</v>
@@ -13889,7 +13893,7 @@
         <v>41</v>
       </c>
       <c r="AN94" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO94" t="n">
         <v>29</v>
@@ -13965,16 +13969,16 @@
         <v>3.5</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R95" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S95" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T95" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U95" t="n">
         <v>1.36</v>
@@ -14076,22 +14080,22 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H96" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I96" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
         <v>2.2</v>
       </c>
       <c r="L96" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M96" t="n">
         <v>1.05</v>
@@ -14106,22 +14110,22 @@
         <v>3.75</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R96" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S96" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T96" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U96" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V96" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W96" t="n">
         <v>1.67</v>
@@ -14139,19 +14143,19 @@
         <v>9.5</v>
       </c>
       <c r="AB96" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC96" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD96" t="n">
         <v>26</v>
       </c>
       <c r="AE96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF96" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG96" t="n">
         <v>13</v>
@@ -14160,19 +14164,19 @@
         <v>41</v>
       </c>
       <c r="AI96" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK96" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL96" t="n">
         <v>11</v>
       </c>
       <c r="AM96" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN96" t="n">
         <v>23</v>
@@ -14217,22 +14221,22 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H97" t="n">
         <v>3.5</v>
       </c>
       <c r="I97" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J97" t="n">
         <v>2.88</v>
       </c>
-      <c r="J97" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K97" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L97" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M97" t="n">
         <v>1.03</v>
@@ -14241,22 +14245,22 @@
         <v>15</v>
       </c>
       <c r="O97" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P97" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R97" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S97" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T97" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U97" t="n">
         <v>1.3</v>
@@ -14277,34 +14281,34 @@
         <v>13</v>
       </c>
       <c r="AA97" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB97" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD97" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE97" t="n">
         <v>15</v>
       </c>
       <c r="AF97" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG97" t="n">
         <v>12</v>
       </c>
       <c r="AH97" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI97" t="n">
         <v>126</v>
       </c>
       <c r="AJ97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK97" t="n">
         <v>17</v>
@@ -14313,13 +14317,13 @@
         <v>11</v>
       </c>
       <c r="AM97" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN97" t="n">
         <v>21</v>
       </c>
       <c r="AO97" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP97" t="n">
         <v>2</v>
@@ -14362,19 +14366,19 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H98" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I98" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J98" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K98" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L98" t="n">
         <v>1.91</v>
@@ -14386,22 +14390,22 @@
         <v>15</v>
       </c>
       <c r="O98" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P98" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R98" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S98" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T98" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U98" t="n">
         <v>1.3</v>
@@ -14419,19 +14423,19 @@
         <v>19</v>
       </c>
       <c r="Z98" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA98" t="n">
         <v>21</v>
       </c>
       <c r="AB98" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AC98" t="n">
         <v>51</v>
       </c>
       <c r="AD98" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE98" t="n">
         <v>13</v>
@@ -14461,10 +14465,10 @@
         <v>9.5</v>
       </c>
       <c r="AN98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO98" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP98" t="n">
         <v>2</v>
@@ -14644,48 +14648,48 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H100" t="n">
         <v>3.65</v>
       </c>
       <c r="I100" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="K100" t="n">
         <v>2.15</v>
       </c>
       <c r="L100" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P100" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q100" t="n">
         <v>1.82</v>
       </c>
       <c r="R100" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S100" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T100" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="U100" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="V100" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="W100" t="n">
         <v>1.78</v>
@@ -14694,16 +14698,16 @@
         <v>1.82</v>
       </c>
       <c r="Y100" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Z100" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA100" t="n">
         <v>8.25</v>
       </c>
       <c r="AB100" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC100" t="n">
         <v>14</v>
@@ -14727,19 +14731,19 @@
         <v>600</v>
       </c>
       <c r="AJ100" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK100" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL100" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM100" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN100" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO100" t="n">
         <v>45</v>
@@ -14943,7 +14947,7 @@
         <v>1.08</v>
       </c>
       <c r="N102" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O102" t="n">
         <v>1.4</v>
@@ -15631,114 +15635,118 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H107" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I107" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J107" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K107" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L107" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M107" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N107" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O107" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P107" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R107" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="S107" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T107" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="U107" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V107" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W107" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="X107" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="Y107" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z107" t="n">
         <v>17</v>
       </c>
       <c r="AA107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB107" t="n">
         <v>41</v>
       </c>
       <c r="AC107" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD107" t="n">
         <v>41</v>
       </c>
       <c r="AE107" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AF107" t="n">
         <v>6</v>
       </c>
       <c r="AG107" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH107" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI107" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AJ107" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL107" t="n">
         <v>9.5</v>
       </c>
       <c r="AM107" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN107" t="n">
         <v>21</v>
       </c>
-      <c r="AN107" t="n">
-        <v>19</v>
-      </c>
       <c r="AO107" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP107" t="inlineStr"/>
       <c r="AQ107" t="inlineStr"/>
-      <c r="AR107" t="inlineStr"/>
-      <c r="AS107" t="inlineStr"/>
+      <c r="AR107" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.93</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15772,13 +15780,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H108" t="n">
         <v>3</v>
       </c>
       <c r="I108" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J108" t="n">
         <v>3</v>
@@ -15793,7 +15801,7 @@
         <v>1.08</v>
       </c>
       <c r="N108" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O108" t="n">
         <v>1.4</v>
@@ -15856,19 +15864,19 @@
         <v>51</v>
       </c>
       <c r="AI108" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ108" t="n">
         <v>9</v>
       </c>
       <c r="AK108" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL108" t="n">
         <v>13</v>
       </c>
       <c r="AM108" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN108" t="n">
         <v>29</v>
@@ -15943,10 +15951,10 @@
         <v>3.75</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R109" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S109" t="n">
         <v>3.25</v>
@@ -16360,16 +16368,16 @@
         <v>15</v>
       </c>
       <c r="O112" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P112" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R112" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S112" t="n">
         <v>2.63</v>
@@ -16505,16 +16513,16 @@
         <v>11</v>
       </c>
       <c r="O113" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P113" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R113" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S113" t="n">
         <v>3.25</v>
@@ -16529,10 +16537,10 @@
         <v>3</v>
       </c>
       <c r="W113" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="X113" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y113" t="n">
         <v>6.5</v>
@@ -16670,16 +16678,16 @@
         <v>2.75</v>
       </c>
       <c r="W114" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="X114" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y114" t="n">
         <v>6.5</v>
       </c>
       <c r="Z114" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA114" t="n">
         <v>8.5</v>
@@ -16709,7 +16717,7 @@
         <v>351</v>
       </c>
       <c r="AJ114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK114" t="n">
         <v>23</v>
@@ -16811,7 +16819,7 @@
         <v>3.25</v>
       </c>
       <c r="W115" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X115" t="n">
         <v>2.05</v>
@@ -16904,36 +16912,36 @@
         </is>
       </c>
       <c r="G116" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K116" t="n">
         <v>2.1</v>
       </c>
-      <c r="H116" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J116" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K116" t="n">
-        <v>2.07</v>
-      </c>
       <c r="L116" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P116" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R116" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S116" t="n">
         <v>3.3</v>
@@ -16954,28 +16962,28 @@
         <v>1.8</v>
       </c>
       <c r="Y116" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="Z116" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AA116" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB116" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AC116" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD116" t="n">
         <v>30</v>
       </c>
       <c r="AE116" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF116" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AG116" t="n">
         <v>15</v>
@@ -16987,16 +16995,16 @@
         <v>700</v>
       </c>
       <c r="AJ116" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK116" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL116" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM116" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN116" t="n">
         <v>35</v>
@@ -17315,16 +17323,16 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H119" t="n">
         <v>3.6</v>
       </c>
       <c r="I119" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J119" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K119" t="n">
         <v>2.38</v>
@@ -17381,7 +17389,7 @@
         <v>29</v>
       </c>
       <c r="AC119" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD119" t="n">
         <v>23</v>
@@ -17405,10 +17413,10 @@
         <v>12</v>
       </c>
       <c r="AK119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL119" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM119" t="n">
         <v>23</v>
@@ -17420,10 +17428,10 @@
         <v>21</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AR119" t="inlineStr"/>
       <c r="AS119" t="inlineStr"/>
@@ -17490,10 +17498,10 @@
         <v>4.1</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R120" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S120" t="n">
         <v>2.5</v>
@@ -17605,10 +17613,10 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H121" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I121" t="n">
         <v>2.25</v>
@@ -17617,85 +17625,85 @@
         <v>4</v>
       </c>
       <c r="K121" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L121" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M121" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N121" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O121" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P121" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="R121" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="S121" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T121" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="U121" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="V121" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W121" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X121" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="Y121" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z121" t="n">
         <v>15</v>
       </c>
       <c r="AA121" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB121" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC121" t="n">
         <v>34</v>
-      </c>
-      <c r="AC121" t="n">
-        <v>29</v>
       </c>
       <c r="AD121" t="n">
         <v>41</v>
       </c>
       <c r="AE121" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AF121" t="n">
         <v>6</v>
       </c>
       <c r="AG121" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH121" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI121" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AJ121" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK121" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL121" t="n">
         <v>9.5</v>
@@ -17704,15 +17712,19 @@
         <v>21</v>
       </c>
       <c r="AN121" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO121" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP121" t="inlineStr"/>
       <c r="AQ121" t="inlineStr"/>
-      <c r="AR121" t="inlineStr"/>
-      <c r="AS121" t="inlineStr"/>
+      <c r="AR121" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -17749,16 +17761,16 @@
         <v>1.8</v>
       </c>
       <c r="H122" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I122" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J122" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K122" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L122" t="n">
         <v>4.33</v>
@@ -17773,13 +17785,13 @@
         <v>1.18</v>
       </c>
       <c r="P122" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R122" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S122" t="n">
         <v>2.3</v>
@@ -17788,7 +17800,7 @@
         <v>1.57</v>
       </c>
       <c r="U122" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="V122" t="n">
         <v>3.3</v>
@@ -17800,10 +17812,10 @@
         <v>2.37</v>
       </c>
       <c r="Y122" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA122" t="n">
         <v>8.5</v>
@@ -17815,22 +17827,22 @@
         <v>13</v>
       </c>
       <c r="AD122" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF122" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG122" t="n">
         <v>12</v>
       </c>
       <c r="AH122" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI122" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ122" t="n">
         <v>17</v>
@@ -17845,16 +17857,16 @@
         <v>41</v>
       </c>
       <c r="AN122" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO122" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AR122" t="inlineStr"/>
       <c r="AS122" t="inlineStr"/>
@@ -18175,22 +18187,22 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H125" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I125" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J125" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K125" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L125" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M125" t="n">
         <v>1.07</v>
@@ -18217,10 +18229,10 @@
         <v>1.22</v>
       </c>
       <c r="U125" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V125" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W125" t="n">
         <v>1.95</v>
@@ -18232,10 +18244,10 @@
         <v>6.5</v>
       </c>
       <c r="Z125" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA125" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB125" t="n">
         <v>19</v>
@@ -18244,13 +18256,13 @@
         <v>19</v>
       </c>
       <c r="AD125" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE125" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF125" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG125" t="n">
         <v>17</v>
@@ -18262,7 +18274,7 @@
         <v>351</v>
       </c>
       <c r="AJ125" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK125" t="n">
         <v>17</v>
@@ -18274,7 +18286,7 @@
         <v>41</v>
       </c>
       <c r="AN125" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO125" t="n">
         <v>41</v>
@@ -18316,22 +18328,22 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H126" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I126" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J126" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K126" t="n">
         <v>2.3</v>
       </c>
       <c r="L126" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="M126" t="n">
         <v>1.04</v>
@@ -18346,10 +18358,10 @@
         <v>3.5</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R126" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S126" t="n">
         <v>3.4</v>
@@ -18358,16 +18370,16 @@
         <v>1.3</v>
       </c>
       <c r="U126" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V126" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W126" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X126" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y126" t="n">
         <v>6</v>
@@ -18376,28 +18388,28 @@
         <v>6</v>
       </c>
       <c r="AA126" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB126" t="n">
         <v>9</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>8.5</v>
       </c>
       <c r="AC126" t="n">
         <v>13</v>
       </c>
       <c r="AD126" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE126" t="n">
         <v>11</v>
       </c>
       <c r="AF126" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG126" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH126" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI126" t="n">
         <v>501</v>
@@ -18406,13 +18418,13 @@
         <v>15</v>
       </c>
       <c r="AK126" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL126" t="n">
         <v>21</v>
       </c>
       <c r="AM126" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN126" t="n">
         <v>51</v>
@@ -18457,28 +18469,28 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H127" t="n">
         <v>2.88</v>
       </c>
       <c r="I127" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J127" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K127" t="n">
         <v>2</v>
       </c>
       <c r="L127" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M127" t="n">
         <v>1.08</v>
       </c>
       <c r="N127" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O127" t="n">
         <v>1.4</v>
@@ -18487,16 +18499,16 @@
         <v>2.75</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R127" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S127" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T127" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U127" t="n">
         <v>1.5</v>
@@ -18523,10 +18535,10 @@
         <v>29</v>
       </c>
       <c r="AC127" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD127" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE127" t="n">
         <v>7.5</v>
@@ -18544,16 +18556,16 @@
         <v>301</v>
       </c>
       <c r="AJ127" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL127" t="n">
         <v>11</v>
       </c>
       <c r="AM127" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN127" t="n">
         <v>23</v>
@@ -19162,16 +19174,16 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H132" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I132" t="n">
         <v>3</v>
       </c>
       <c r="J132" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K132" t="n">
         <v>2.1</v>
@@ -19180,28 +19192,28 @@
         <v>3.5</v>
       </c>
       <c r="M132" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N132" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O132" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P132" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R132" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S132" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T132" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U132" t="n">
         <v>1.4</v>
@@ -19210,13 +19222,13 @@
         <v>2.75</v>
       </c>
       <c r="W132" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X132" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y132" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z132" t="n">
         <v>11</v>
@@ -19243,7 +19255,7 @@
         <v>15</v>
       </c>
       <c r="AH132" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI132" t="n">
         <v>600</v>
@@ -19333,16 +19345,16 @@
         <v>4.5</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R133" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S133" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T133" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U133" t="n">
         <v>1.29</v>
@@ -19408,10 +19420,10 @@
         <v>21</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR133" t="inlineStr"/>
       <c r="AS133" t="inlineStr"/>
@@ -19451,19 +19463,19 @@
         <v>1.33</v>
       </c>
       <c r="H134" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I134" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J134" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K134" t="n">
         <v>2.5</v>
       </c>
       <c r="L134" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M134" t="n">
         <v>1.03</v>
@@ -19484,10 +19496,10 @@
         <v>2.38</v>
       </c>
       <c r="S134" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T134" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U134" t="n">
         <v>1.29</v>
@@ -19502,7 +19514,7 @@
         <v>1.83</v>
       </c>
       <c r="Y134" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z134" t="n">
         <v>7</v>
@@ -19511,22 +19523,22 @@
         <v>9</v>
       </c>
       <c r="AB134" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC134" t="n">
         <v>11</v>
       </c>
       <c r="AD134" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE134" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF134" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG134" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH134" t="n">
         <v>51</v>
@@ -19535,13 +19547,13 @@
         <v>600</v>
       </c>
       <c r="AJ134" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK134" t="n">
         <v>41</v>
       </c>
       <c r="AL134" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM134" t="n">
         <v>81</v>
@@ -19550,13 +19562,13 @@
         <v>51</v>
       </c>
       <c r="AO134" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AR134" t="inlineStr"/>
       <c r="AS134" t="inlineStr"/>
@@ -19593,13 +19605,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H135" t="n">
         <v>3.6</v>
       </c>
       <c r="I135" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J135" t="n">
         <v>3.6</v>
@@ -19623,16 +19635,16 @@
         <v>4</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R135" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S135" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T135" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U135" t="n">
         <v>1.36</v>
@@ -19650,7 +19662,7 @@
         <v>11</v>
       </c>
       <c r="Z135" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA135" t="n">
         <v>11</v>
@@ -19683,7 +19695,7 @@
         <v>9</v>
       </c>
       <c r="AK135" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL135" t="n">
         <v>9</v>
@@ -19911,10 +19923,10 @@
         <v>1.73</v>
       </c>
       <c r="S137" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T137" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U137" t="n">
         <v>1.44</v>
@@ -20016,22 +20028,22 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H138" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I138" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J138" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K138" t="n">
         <v>2.1</v>
       </c>
       <c r="L138" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M138" t="n">
         <v>1.06</v>
@@ -20073,13 +20085,13 @@
         <v>8.5</v>
       </c>
       <c r="Z138" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA138" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB138" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC138" t="n">
         <v>21</v>
@@ -20103,7 +20115,7 @@
         <v>251</v>
       </c>
       <c r="AJ138" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK138" t="n">
         <v>13</v>
@@ -20112,7 +20124,7 @@
         <v>10</v>
       </c>
       <c r="AM138" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN138" t="n">
         <v>21</v>
@@ -20298,22 +20310,22 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H140" t="n">
         <v>3</v>
       </c>
       <c r="I140" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J140" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K140" t="n">
         <v>1.91</v>
       </c>
       <c r="L140" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M140" t="n">
         <v>1.1</v>
@@ -20322,16 +20334,16 @@
         <v>6.5</v>
       </c>
       <c r="O140" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P140" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R140" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S140" t="n">
         <v>4.5</v>
@@ -20405,10 +20417,10 @@
       <c r="AP140" t="inlineStr"/>
       <c r="AQ140" t="inlineStr"/>
       <c r="AR140" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="141">
@@ -20461,10 +20473,10 @@
         <v>2.3</v>
       </c>
       <c r="M141" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N141" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O141" t="n">
         <v>1.25</v>
@@ -20584,16 +20596,16 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H142" t="n">
         <v>3.5</v>
       </c>
       <c r="I142" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J142" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K142" t="n">
         <v>2.2</v>
@@ -20614,10 +20626,10 @@
         <v>3.5</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R142" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S142" t="n">
         <v>3.25</v>
@@ -20641,7 +20653,7 @@
         <v>7</v>
       </c>
       <c r="Z142" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA142" t="n">
         <v>9</v>
@@ -20650,10 +20662,10 @@
         <v>12</v>
       </c>
       <c r="AC142" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD142" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE142" t="n">
         <v>10</v>
@@ -20674,7 +20686,7 @@
         <v>15</v>
       </c>
       <c r="AK142" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL142" t="n">
         <v>17</v>
@@ -20725,7 +20737,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H143" t="n">
         <v>3.75</v>
@@ -20734,13 +20746,13 @@
         <v>5.2</v>
       </c>
       <c r="J143" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K143" t="n">
         <v>2.25</v>
       </c>
       <c r="L143" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M143" t="n">
         <v>1.06</v>
@@ -20761,7 +20773,7 @@
         <v>1.78</v>
       </c>
       <c r="S143" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T143" t="n">
         <v>1.3</v>
@@ -20773,16 +20785,16 @@
         <v>2.82</v>
       </c>
       <c r="W143" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="X143" t="n">
         <v>1.75</v>
       </c>
       <c r="Y143" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z143" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA143" t="n">
         <v>8.25</v>
@@ -20794,7 +20806,7 @@
         <v>13.5</v>
       </c>
       <c r="AD143" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE143" t="n">
         <v>7.1</v>
@@ -20803,7 +20815,7 @@
         <v>7.3</v>
       </c>
       <c r="AG143" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH143" t="n">
         <v>100</v>
@@ -20824,10 +20836,10 @@
         <v>100</v>
       </c>
       <c r="AN143" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO143" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP143" t="inlineStr"/>
       <c r="AQ143" t="inlineStr"/>
@@ -21007,109 +21019,109 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H145" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="I145" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="J145" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="K145" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="L145" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="M145" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N145" t="n">
+        <v>8</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P145" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V145" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W145" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="X145" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA145" t="n">
         <v>8.75</v>
       </c>
-      <c r="O145" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P145" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R145" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S145" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T145" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U145" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="V145" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="W145" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X145" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y145" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z145" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA145" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB145" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AC145" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AD145" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE145" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AF145" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG145" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AH145" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO145" t="n">
         <v>100</v>
-      </c>
-      <c r="AI145" t="n">
-        <v>800</v>
-      </c>
-      <c r="AJ145" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK145" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL145" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM145" t="n">
-        <v>175</v>
-      </c>
-      <c r="AN145" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO145" t="n">
-        <v>75</v>
       </c>
       <c r="AP145" t="inlineStr"/>
       <c r="AQ145" t="inlineStr"/>
@@ -21148,22 +21160,22 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H146" t="n">
         <v>3.65</v>
       </c>
       <c r="I146" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="J146" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="K146" t="n">
         <v>2.18</v>
       </c>
       <c r="L146" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="M146" t="n">
         <v>1.05</v>
@@ -21175,7 +21187,7 @@
         <v>1.26</v>
       </c>
       <c r="P146" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q146" t="n">
         <v>1.78</v>
@@ -21202,16 +21214,16 @@
         <v>2</v>
       </c>
       <c r="Y146" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z146" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA146" t="n">
         <v>8.25</v>
       </c>
       <c r="AB146" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC146" t="n">
         <v>13.5</v>
@@ -21235,7 +21247,7 @@
         <v>450</v>
       </c>
       <c r="AJ146" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK146" t="n">
         <v>24</v>
@@ -21250,7 +21262,7 @@
         <v>37</v>
       </c>
       <c r="AO146" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP146" t="inlineStr"/>
       <c r="AQ146" t="inlineStr"/>
@@ -21289,13 +21301,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H147" t="n">
         <v>5</v>
       </c>
       <c r="I147" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J147" t="n">
         <v>1.78</v>
@@ -21304,7 +21316,7 @@
         <v>2.4</v>
       </c>
       <c r="L147" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="M147" t="n">
         <v>1.04</v>
@@ -21334,19 +21346,19 @@
         <v>1.36</v>
       </c>
       <c r="V147" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="W147" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="X147" t="n">
         <v>1.62</v>
       </c>
       <c r="Y147" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z147" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AA147" t="n">
         <v>9</v>
@@ -21376,16 +21388,16 @@
         <v>1000</v>
       </c>
       <c r="AJ147" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK147" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL147" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM147" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AN147" t="n">
         <v>120</v>
@@ -21436,7 +21448,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J148" t="n">
         <v>4</v>
@@ -21573,16 +21585,16 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H149" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I149" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J149" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K149" t="n">
         <v>1.91</v>
@@ -21591,28 +21603,28 @@
         <v>5.5</v>
       </c>
       <c r="M149" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N149" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O149" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P149" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R149" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S149" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T149" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U149" t="n">
         <v>1.57</v>
@@ -21621,10 +21633,10 @@
         <v>2.25</v>
       </c>
       <c r="W149" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X149" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y149" t="n">
         <v>5</v>
@@ -21678,10 +21690,10 @@
       <c r="AP149" t="inlineStr"/>
       <c r="AQ149" t="inlineStr"/>
       <c r="AR149" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="150">
@@ -21746,10 +21758,10 @@
         <v>3.5</v>
       </c>
       <c r="Q150" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R150" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S150" t="n">
         <v>3.4</v>
@@ -21857,13 +21869,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H151" t="n">
         <v>3.8</v>
       </c>
       <c r="I151" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J151" t="n">
         <v>2.3</v>
@@ -21872,7 +21884,7 @@
         <v>2.2</v>
       </c>
       <c r="L151" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M151" t="n">
         <v>1.05</v>
@@ -21887,16 +21899,16 @@
         <v>3.4</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R151" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S151" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T151" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U151" t="n">
         <v>1.4</v>
@@ -21920,7 +21932,7 @@
         <v>8.5</v>
       </c>
       <c r="AB151" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC151" t="n">
         <v>15</v>
@@ -21935,7 +21947,7 @@
         <v>7.5</v>
       </c>
       <c r="AG151" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH151" t="n">
         <v>51</v>
@@ -21998,13 +22010,13 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H152" t="n">
         <v>3.4</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J152" t="n">
         <v>2.88</v>
@@ -22052,7 +22064,7 @@
         <v>2.38</v>
       </c>
       <c r="Y152" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z152" t="n">
         <v>13</v>
@@ -22061,13 +22073,13 @@
         <v>9.5</v>
       </c>
       <c r="AB152" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC152" t="n">
         <v>17</v>
       </c>
       <c r="AD152" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE152" t="n">
         <v>13</v>
@@ -22085,16 +22097,16 @@
         <v>126</v>
       </c>
       <c r="AJ152" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK152" t="n">
         <v>17</v>
       </c>
       <c r="AL152" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM152" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN152" t="n">
         <v>21</v>
@@ -23148,10 +23160,10 @@
         <v>3.6</v>
       </c>
       <c r="M160" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N160" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O160" t="n">
         <v>1.25</v>
@@ -23160,16 +23172,16 @@
         <v>3.75</v>
       </c>
       <c r="Q160" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R160" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S160" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T160" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U160" t="n">
         <v>1.36</v>
@@ -23416,13 +23428,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I162" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I162" t="n">
-        <v>3.25</v>
       </c>
       <c r="J162" t="n">
         <v>2.88</v>
@@ -23437,7 +23449,7 @@
         <v>1.06</v>
       </c>
       <c r="N162" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O162" t="n">
         <v>1.33</v>
@@ -23470,7 +23482,7 @@
         <v>1.83</v>
       </c>
       <c r="Y162" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z162" t="n">
         <v>10</v>
@@ -23488,7 +23500,7 @@
         <v>29</v>
       </c>
       <c r="AE162" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF162" t="n">
         <v>6.5</v>
@@ -23500,7 +23512,7 @@
         <v>51</v>
       </c>
       <c r="AI162" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ162" t="n">
         <v>9.5</v>
@@ -23518,7 +23530,7 @@
         <v>29</v>
       </c>
       <c r="AO162" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP162" t="inlineStr"/>
       <c r="AQ162" t="inlineStr"/>
@@ -23773,28 +23785,28 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H165" t="n">
+        <v>3</v>
+      </c>
+      <c r="I165" t="n">
         <v>3.1</v>
       </c>
-      <c r="I165" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J165" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K165" t="n">
         <v>2</v>
       </c>
       <c r="L165" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M165" t="n">
         <v>1.08</v>
       </c>
       <c r="N165" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O165" t="n">
         <v>1.4</v>
@@ -23803,16 +23815,16 @@
         <v>2.75</v>
       </c>
       <c r="Q165" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R165" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S165" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T165" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U165" t="n">
         <v>1.5</v>
@@ -23827,13 +23839,13 @@
         <v>1.8</v>
       </c>
       <c r="Y165" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z165" t="n">
         <v>10</v>
       </c>
       <c r="AA165" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB165" t="n">
         <v>21</v>
@@ -23918,22 +23930,22 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H166" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I166" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J166" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K166" t="n">
         <v>2.3</v>
       </c>
       <c r="L166" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M166" t="n">
         <v>1.05</v>
@@ -23948,16 +23960,16 @@
         <v>3.75</v>
       </c>
       <c r="Q166" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R166" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S166" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T166" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U166" t="n">
         <v>1.36</v>
@@ -23981,7 +23993,7 @@
         <v>8.5</v>
       </c>
       <c r="AB166" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC166" t="n">
         <v>13</v>
@@ -24008,7 +24020,7 @@
         <v>15</v>
       </c>
       <c r="AK166" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL166" t="n">
         <v>19</v>
@@ -24017,7 +24029,7 @@
         <v>67</v>
       </c>
       <c r="AN166" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO166" t="n">
         <v>51</v>
@@ -24200,52 +24212,52 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="H168" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I168" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="J168" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L168" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N168" t="n">
+        <v>9</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P168" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S168" t="n">
         <v>2.37</v>
       </c>
-      <c r="K168" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L168" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="M168" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N168" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="O168" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P168" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R168" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S168" t="n">
-        <v>2.4</v>
-      </c>
       <c r="T168" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U168" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="V168" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="W168" t="n">
         <v>1.55</v>
@@ -24257,13 +24269,13 @@
         <v>9.75</v>
       </c>
       <c r="Z168" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA168" t="n">
         <v>8.25</v>
       </c>
       <c r="AB168" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC168" t="n">
         <v>13</v>
@@ -24272,10 +24284,10 @@
         <v>19.5</v>
       </c>
       <c r="AE168" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF168" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AG168" t="n">
         <v>12.5</v>
@@ -24287,19 +24299,19 @@
         <v>250</v>
       </c>
       <c r="AJ168" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK168" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL168" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM168" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN168" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO168" t="n">
         <v>30</v>
@@ -24341,22 +24353,22 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="H169" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I169" t="n">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="J169" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="K169" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L169" t="n">
-        <v>4.05</v>
+        <v>4.35</v>
       </c>
       <c r="M169" t="n">
         <v>1.04</v>
@@ -24368,25 +24380,25 @@
         <v>1.21</v>
       </c>
       <c r="P169" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R169" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S169" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T169" t="n">
         <v>1.47</v>
       </c>
       <c r="U169" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="V169" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="W169" t="n">
         <v>1.6</v>
@@ -24395,34 +24407,34 @@
         <v>2.2</v>
       </c>
       <c r="Y169" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z169" t="n">
         <v>9.75</v>
       </c>
       <c r="AA169" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB169" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC169" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD169" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE169" t="n">
         <v>8.5</v>
       </c>
       <c r="AF169" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AG169" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH169" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI169" t="n">
         <v>300</v>
@@ -24431,19 +24443,19 @@
         <v>14</v>
       </c>
       <c r="AK169" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL169" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM169" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN169" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AO169" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AP169" t="inlineStr"/>
       <c r="AQ169" t="inlineStr"/>
@@ -24623,106 +24635,106 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="H171" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I171" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J171" t="n">
         <v>2.77</v>
       </c>
       <c r="K171" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L171" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="M171" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N171" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="O171" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P171" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="Q171" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="R171" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S171" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="T171" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U171" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V171" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="W171" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X171" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y171" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="Z171" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA171" t="n">
         <v>9.25</v>
       </c>
       <c r="AB171" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC171" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AD171" t="n">
         <v>37</v>
       </c>
       <c r="AE171" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AF171" t="n">
         <v>6.3</v>
       </c>
-      <c r="AF171" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AG171" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH171" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI171" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AJ171" t="n">
         <v>8.25</v>
       </c>
       <c r="AK171" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL171" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM171" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN171" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO171" t="n">
         <v>50</v>
@@ -24764,13 +24776,13 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="H172" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I172" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J172" t="n">
         <v>1.55</v>
@@ -24857,10 +24869,10 @@
         <v>120</v>
       </c>
       <c r="AL172" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM172" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN172" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-01.xlsx
@@ -857,10 +857,10 @@
         <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.44</v>
@@ -1435,16 +1435,16 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U7" t="n">
         <v>1.36</v>
@@ -1550,34 +1550,34 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
         <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q8" t="n">
         <v>1.44</v>
@@ -1592,10 +1592,10 @@
         <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W8" t="n">
         <v>1.7</v>
@@ -1604,19 +1604,19 @@
         <v>2.05</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z8" t="n">
         <v>41</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD8" t="n">
         <v>41</v>
@@ -1628,10 +1628,10 @@
         <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI8" t="n">
         <v>151</v>
@@ -1640,16 +1640,16 @@
         <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL8" t="n">
         <v>9</v>
       </c>
       <c r="AM8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AN8" t="n">
         <v>10</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>21</v>
@@ -1836,28 +1836,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H10" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
         <v>1.25</v>
@@ -1878,28 +1878,28 @@
         <v>1.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y10" t="n">
         <v>7</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA10" t="n">
         <v>8.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
         <v>12</v>
@@ -1908,31 +1908,31 @@
         <v>26</v>
       </c>
       <c r="AE10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
         <v>51</v>
       </c>
       <c r="AI10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ10" t="n">
         <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
         <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN10" t="n">
         <v>51</v>
@@ -3258,22 +3258,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
         <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -3306,25 +3306,25 @@
         <v>2.63</v>
       </c>
       <c r="W20" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X20" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
         <v>29</v>
@@ -3336,13 +3336,13 @@
         <v>6.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
@@ -3351,13 +3351,13 @@
         <v>21</v>
       </c>
       <c r="AL20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO20" t="n">
         <v>41</v>
@@ -3544,22 +3544,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K22" t="n">
         <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -3586,16 +3586,16 @@
         <v>1.36</v>
       </c>
       <c r="U22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y22" t="n">
         <v>8</v>
@@ -3637,16 +3637,16 @@
         <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN22" t="n">
         <v>34</v>
       </c>
       <c r="AO22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="J23" t="n">
         <v>5.5</v>
@@ -3700,7 +3700,7 @@
         <v>2.6</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
@@ -3709,22 +3709,22 @@
         <v>19</v>
       </c>
       <c r="O23" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R23" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U23" t="n">
         <v>1.25</v>
@@ -3733,19 +3733,19 @@
         <v>3.75</v>
       </c>
       <c r="W23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y23" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA23" t="n">
         <v>21</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>19</v>
       </c>
       <c r="AB23" t="n">
         <v>67</v>
@@ -3754,43 +3754,47 @@
         <v>41</v>
       </c>
       <c r="AD23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
         <v>9</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH23" t="n">
         <v>41</v>
       </c>
       <c r="AI23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AL23" t="n">
         <v>8.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN23" t="n">
         <v>11</v>
       </c>
       <c r="AO23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>2</v>
+      </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
     </row>
@@ -4114,28 +4118,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K26" t="n">
         <v>2.1</v>
       </c>
       <c r="L26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N26" t="n">
         <v>8</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N26" t="n">
-        <v>9</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -4162,22 +4166,22 @@
         <v>2.5</v>
       </c>
       <c r="W26" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y26" t="n">
         <v>5</v>
       </c>
       <c r="Z26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA26" t="n">
         <v>9</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC26" t="n">
         <v>15</v>
@@ -4189,10 +4193,10 @@
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH26" t="n">
         <v>101</v>
@@ -4208,7 +4212,7 @@
         <v>23</v>
       </c>
       <c r="AM26" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN26" t="n">
         <v>67</v>
@@ -4253,22 +4257,22 @@
         </is>
       </c>
       <c r="G27" t="n">
+        <v>9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J27" t="n">
         <v>8</v>
       </c>
-      <c r="H27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>7.5</v>
-      </c>
       <c r="K27" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
@@ -4283,10 +4287,10 @@
         <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S27" t="n">
         <v>2.38</v>
@@ -4301,22 +4305,22 @@
         <v>3.5</v>
       </c>
       <c r="W27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X27" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z27" t="n">
         <v>41</v>
       </c>
       <c r="AA27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB27" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AC27" t="n">
         <v>51</v>
@@ -4340,28 +4344,28 @@
         <v>301</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK27" t="n">
         <v>7</v>
       </c>
       <c r="AL27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM27" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>9</v>
       </c>
       <c r="AN27" t="n">
         <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4416,10 +4420,10 @@
         <v>3.6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O28" t="n">
         <v>1.62</v>
@@ -4428,10 +4432,10 @@
         <v>2.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R28" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S28" t="n">
         <v>6.5</v>
@@ -4440,7 +4444,7 @@
         <v>1.11</v>
       </c>
       <c r="U28" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V28" t="n">
         <v>2.1</v>
@@ -4547,7 +4551,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
         <v>2.88</v>
@@ -4559,7 +4563,7 @@
         <v>4.33</v>
       </c>
       <c r="K29" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L29" t="n">
         <v>3.4</v>
@@ -4589,7 +4593,7 @@
         <v>1.1</v>
       </c>
       <c r="U29" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V29" t="n">
         <v>2.1</v>
@@ -4637,7 +4641,7 @@
         <v>5.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL29" t="n">
         <v>11</v>
@@ -4646,7 +4650,7 @@
         <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
         <v>41</v>
@@ -4696,22 +4700,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K30" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M30" t="n">
         <v>1.1</v>
@@ -4738,31 +4742,31 @@
         <v>1.17</v>
       </c>
       <c r="U30" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V30" t="n">
         <v>2.25</v>
       </c>
       <c r="W30" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z30" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA30" t="n">
         <v>9.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD30" t="n">
         <v>41</v>
@@ -4771,28 +4775,28 @@
         <v>6.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
         <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI30" t="n">
         <v>101</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN30" t="n">
         <v>51</v>
@@ -4801,16 +4805,16 @@
         <v>67</v>
       </c>
       <c r="AP30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="31">
@@ -5866,10 +5870,10 @@
         <v>3.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R38" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S38" t="n">
         <v>3.25</v>
@@ -5977,22 +5981,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J39" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K39" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.02</v>
@@ -6001,79 +6005,79 @@
         <v>19</v>
       </c>
       <c r="O39" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R39" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S39" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U39" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V39" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X39" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB39" t="n">
         <v>7.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD39" t="n">
         <v>26</v>
       </c>
       <c r="AE39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG39" t="n">
         <v>23</v>
       </c>
       <c r="AH39" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI39" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK39" t="n">
         <v>51</v>
       </c>
       <c r="AL39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM39" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN39" t="n">
         <v>67</v>
@@ -6263,28 +6267,28 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="J41" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
         <v>2.1</v>
       </c>
       <c r="L41" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O41" t="n">
         <v>1.29</v>
@@ -6317,25 +6321,25 @@
         <v>2</v>
       </c>
       <c r="Y41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA41" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD41" t="n">
         <v>29</v>
       </c>
       <c r="AE41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF41" t="n">
         <v>6</v>
@@ -6350,19 +6354,19 @@
         <v>201</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AK41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO41" t="n">
         <v>29</v>
@@ -6404,7 +6408,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H42" t="n">
         <v>3.75</v>
@@ -6419,31 +6423,31 @@
         <v>2.25</v>
       </c>
       <c r="L42" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M42" t="n">
         <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R42" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T42" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U42" t="n">
         <v>1.36</v>
@@ -6458,7 +6462,7 @@
         <v>2</v>
       </c>
       <c r="Y42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z42" t="n">
         <v>21</v>
@@ -6485,13 +6489,13 @@
         <v>15</v>
       </c>
       <c r="AH42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI42" t="n">
         <v>201</v>
       </c>
       <c r="AJ42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK42" t="n">
         <v>9</v>
@@ -6503,7 +6507,7 @@
         <v>15</v>
       </c>
       <c r="AN42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO42" t="n">
         <v>23</v>
@@ -6545,13 +6549,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J43" t="n">
         <v>2.88</v>
@@ -6560,7 +6564,7 @@
         <v>1.95</v>
       </c>
       <c r="L43" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.1</v>
@@ -6575,22 +6579,22 @@
         <v>2.63</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S43" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T43" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U43" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V43" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W43" t="n">
         <v>2.1</v>
@@ -6602,22 +6606,22 @@
         <v>6</v>
       </c>
       <c r="Z43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA43" t="n">
         <v>9.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD43" t="n">
         <v>41</v>
       </c>
       <c r="AE43" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF43" t="n">
         <v>6</v>
@@ -6632,10 +6636,10 @@
         <v>1250</v>
       </c>
       <c r="AJ43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL43" t="n">
         <v>15</v>
@@ -6644,22 +6648,22 @@
         <v>41</v>
       </c>
       <c r="AN43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO43" t="n">
         <v>41</v>
       </c>
-      <c r="AO43" t="n">
-        <v>51</v>
-      </c>
       <c r="AP43" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR43" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="44">
@@ -6694,22 +6698,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J44" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
         <v>1.91</v>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M44" t="n">
         <v>1.11</v>
@@ -6757,7 +6761,7 @@
         <v>13</v>
       </c>
       <c r="AB44" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC44" t="n">
         <v>34</v>
@@ -6775,7 +6779,7 @@
         <v>19</v>
       </c>
       <c r="AH44" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI44" t="n">
         <v>1000</v>
@@ -7133,46 +7137,46 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
         <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="J47" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
         <v>1.91</v>
       </c>
       <c r="L47" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P47" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R47" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T47" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U47" t="n">
         <v>1.57</v>
@@ -7181,16 +7185,16 @@
         <v>2.25</v>
       </c>
       <c r="W47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X47" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA47" t="n">
         <v>15</v>
@@ -7208,7 +7212,7 @@
         <v>6.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG47" t="n">
         <v>21</v>
@@ -7221,13 +7225,13 @@
         <v>5.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN47" t="n">
         <v>21</v>
@@ -7238,10 +7242,10 @@
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
       <c r="AR47" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="48">
@@ -7276,22 +7280,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I48" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="J48" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="K48" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="L48" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
@@ -7300,82 +7304,82 @@
         <v>10</v>
       </c>
       <c r="O48" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P48" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="R48" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="S48" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="T48" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="U48" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V48" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="W48" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="X48" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Y48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z48" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AA48" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB48" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AC48" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD48" t="n">
         <v>90</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>75</v>
       </c>
       <c r="AE48" t="n">
         <v>10</v>
       </c>
       <c r="AF48" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH48" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI48" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ48" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AL48" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM48" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AN48" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO48" t="n">
         <v>27</v>
@@ -7417,22 +7421,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H49" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="I49" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="J49" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="K49" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="L49" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="M49" t="n">
         <v>1.02</v>
@@ -7444,82 +7448,82 @@
         <v>1.11</v>
       </c>
       <c r="P49" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="R49" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="S49" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T49" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U49" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="V49" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="W49" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X49" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="Y49" t="n">
         <v>8.5</v>
       </c>
       <c r="Z49" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB49" t="n">
         <v>7.8</v>
       </c>
-      <c r="AA49" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AC49" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD49" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE49" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF49" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AH49" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI49" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AJ49" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK49" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AL49" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM49" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AN49" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AO49" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AP49" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
@@ -8404,22 +8408,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="H56" t="n">
         <v>2.65</v>
       </c>
       <c r="I56" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J56" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="L56" t="n">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="M56" t="n">
         <v>1.15</v>
@@ -8434,7 +8438,7 @@
         <v>2.22</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R56" t="n">
         <v>1.4</v>
@@ -8446,7 +8450,7 @@
         <v>1.14</v>
       </c>
       <c r="U56" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V56" t="n">
         <v>2.18</v>
@@ -8458,19 +8462,19 @@
         <v>1.62</v>
       </c>
       <c r="Y56" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z56" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB56" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC56" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AD56" t="n">
         <v>45</v>
@@ -8482,7 +8486,7 @@
         <v>5.4</v>
       </c>
       <c r="AG56" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH56" t="n">
         <v>120</v>
@@ -8494,19 +8498,19 @@
         <v>8</v>
       </c>
       <c r="AK56" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM56" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN56" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AO56" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
@@ -8545,13 +8549,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="H57" t="n">
         <v>2.47</v>
       </c>
       <c r="I57" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J57" t="n">
         <v>3.15</v>
@@ -8560,7 +8564,7 @@
         <v>1.75</v>
       </c>
       <c r="L57" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="M57" t="n">
         <v>1.17</v>
@@ -8587,10 +8591,10 @@
         <v>1.13</v>
       </c>
       <c r="U57" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V57" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W57" t="n">
         <v>2.12</v>
@@ -8599,7 +8603,7 @@
         <v>1.65</v>
       </c>
       <c r="Y57" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z57" t="n">
         <v>10.5</v>
@@ -8611,7 +8615,7 @@
         <v>28</v>
       </c>
       <c r="AC57" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD57" t="n">
         <v>45</v>
@@ -8632,22 +8636,22 @@
         <v>101</v>
       </c>
       <c r="AJ57" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AK57" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL57" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM57" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO57" t="n">
         <v>65</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>45</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>60</v>
       </c>
       <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
@@ -11957,22 +11961,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H81" t="n">
         <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J81" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K81" t="n">
         <v>2.05</v>
       </c>
       <c r="L81" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M81" t="n">
         <v>1.07</v>
@@ -12011,10 +12015,10 @@
         <v>1.83</v>
       </c>
       <c r="Y81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA81" t="n">
         <v>12</v>
@@ -12047,7 +12051,7 @@
         <v>7.5</v>
       </c>
       <c r="AK81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL81" t="n">
         <v>9.5</v>
@@ -12056,10 +12060,10 @@
         <v>21</v>
       </c>
       <c r="AN81" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO81" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP81" t="inlineStr"/>
       <c r="AQ81" t="inlineStr"/>
@@ -12525,22 +12529,22 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I85" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J85" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K85" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L85" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M85" t="n">
         <v>1.03</v>
@@ -12549,22 +12553,22 @@
         <v>15</v>
       </c>
       <c r="O85" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P85" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R85" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S85" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T85" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U85" t="n">
         <v>1.3</v>
@@ -12579,13 +12583,13 @@
         <v>2.5</v>
       </c>
       <c r="Y85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA85" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB85" t="n">
         <v>23</v>
@@ -12612,7 +12616,7 @@
         <v>101</v>
       </c>
       <c r="AJ85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK85" t="n">
         <v>17</v>
@@ -12624,16 +12628,16 @@
         <v>29</v>
       </c>
       <c r="AN85" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO85" t="n">
         <v>23</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AR85" t="inlineStr"/>
       <c r="AS85" t="inlineStr"/>
@@ -13774,16 +13778,16 @@
         <v>41</v>
       </c>
       <c r="AP93" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AR93" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="94">
@@ -16521,40 +16525,40 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H113" t="n">
         <v>4.33</v>
       </c>
       <c r="I113" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J113" t="n">
         <v>1.95</v>
       </c>
       <c r="K113" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L113" t="n">
         <v>7</v>
       </c>
       <c r="M113" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N113" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O113" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P113" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R113" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S113" t="n">
         <v>3</v>
@@ -16569,22 +16573,22 @@
         <v>3</v>
       </c>
       <c r="W113" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X113" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y113" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z113" t="n">
         <v>6.5</v>
       </c>
       <c r="AA113" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB113" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC113" t="n">
         <v>12</v>
@@ -16599,13 +16603,13 @@
         <v>8.5</v>
       </c>
       <c r="AG113" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH113" t="n">
         <v>67</v>
       </c>
       <c r="AI113" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AJ113" t="n">
         <v>17</v>
@@ -16680,10 +16684,10 @@
         <v>5.5</v>
       </c>
       <c r="M114" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N114" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O114" t="n">
         <v>1.29</v>
@@ -16692,10 +16696,10 @@
         <v>3.5</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R114" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S114" t="n">
         <v>3.4</v>
@@ -16833,10 +16837,10 @@
         <v>4.33</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R115" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S115" t="n">
         <v>2.63</v>
@@ -17081,22 +17085,22 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H117" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I117" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="J117" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="K117" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L117" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
@@ -17104,30 +17108,30 @@
         <v>1.25</v>
       </c>
       <c r="P117" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q117" t="n">
         <v>1.75</v>
       </c>
       <c r="R117" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S117" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="T117" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X117" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Y117" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Z117" t="n">
         <v>8.25</v>
@@ -17136,28 +17140,28 @@
         <v>8</v>
       </c>
       <c r="AB117" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC117" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD117" t="n">
         <v>24</v>
       </c>
       <c r="AE117" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF117" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AG117" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH117" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI117" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ117" t="n">
         <v>13.5</v>
@@ -17166,16 +17170,16 @@
         <v>27</v>
       </c>
       <c r="AL117" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM117" t="n">
         <v>80</v>
       </c>
       <c r="AN117" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AO117" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP117" t="inlineStr"/>
       <c r="AQ117" t="inlineStr"/>
@@ -17790,19 +17794,19 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I122" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J122" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K122" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L122" t="n">
         <v>4.33</v>
@@ -17811,40 +17815,40 @@
         <v>1.04</v>
       </c>
       <c r="N122" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O122" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P122" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R122" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S122" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="T122" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U122" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="V122" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="W122" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X122" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="Y122" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z122" t="n">
         <v>10</v>
@@ -17862,10 +17866,10 @@
         <v>21</v>
       </c>
       <c r="AE122" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF122" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG122" t="n">
         <v>12</v>
@@ -17874,13 +17878,13 @@
         <v>41</v>
       </c>
       <c r="AI122" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ122" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK122" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL122" t="n">
         <v>15</v>
@@ -17889,7 +17893,7 @@
         <v>41</v>
       </c>
       <c r="AN122" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO122" t="n">
         <v>34</v>
@@ -18376,16 +18380,16 @@
         <v>2.1</v>
       </c>
       <c r="K126" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L126" t="n">
         <v>6.5</v>
       </c>
       <c r="M126" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N126" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O126" t="n">
         <v>1.3</v>
@@ -18436,13 +18440,13 @@
         <v>29</v>
       </c>
       <c r="AE126" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF126" t="n">
         <v>7.5</v>
       </c>
       <c r="AG126" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH126" t="n">
         <v>67</v>
@@ -19580,7 +19584,7 @@
         <v>51</v>
       </c>
       <c r="AI134" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ134" t="n">
         <v>23</v>
@@ -21055,109 +21059,109 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="H145" t="n">
-        <v>4.75</v>
+        <v>4.05</v>
       </c>
       <c r="I145" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="J145" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K145" t="n">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="L145" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="M145" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N145" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P145" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S145" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W145" t="n">
+        <v>2</v>
+      </c>
+      <c r="X145" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA145" t="n">
         <v>8.25</v>
       </c>
-      <c r="O145" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P145" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R145" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S145" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T145" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U145" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V145" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="W145" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X145" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y145" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Z145" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AA145" t="n">
-        <v>9</v>
-      </c>
       <c r="AB145" t="n">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="AC145" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD145" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AE145" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AF145" t="n">
         <v>8.25</v>
       </c>
-      <c r="AF145" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AG145" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AH145" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AI145" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AJ145" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AK145" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AL145" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AM145" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AN145" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AO145" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AP145" t="inlineStr"/>
       <c r="AQ145" t="inlineStr"/>
@@ -21905,64 +21909,64 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H151" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I151" t="n">
         <v>5</v>
       </c>
       <c r="J151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K151" t="n">
         <v>2.3</v>
       </c>
-      <c r="K151" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L151" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M151" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N151" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O151" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P151" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q151" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R151" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S151" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="T151" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U151" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V151" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X151" t="n">
         <v>1.91</v>
       </c>
-      <c r="X151" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Y151" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z151" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA151" t="n">
         <v>8.5</v>
@@ -21971,34 +21975,34 @@
         <v>12</v>
       </c>
       <c r="AC151" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD151" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE151" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF151" t="n">
         <v>7.5</v>
       </c>
       <c r="AG151" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH151" t="n">
         <v>51</v>
       </c>
       <c r="AI151" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AJ151" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK151" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL151" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM151" t="n">
         <v>51</v>
@@ -22332,16 +22336,16 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H154" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I154" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J154" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K154" t="n">
         <v>2.3</v>
@@ -22350,10 +22354,10 @@
         <v>5.5</v>
       </c>
       <c r="M154" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N154" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O154" t="n">
         <v>1.22</v>
@@ -22362,10 +22366,10 @@
         <v>4</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R154" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S154" t="n">
         <v>2.75</v>
@@ -22374,10 +22378,10 @@
         <v>1.4</v>
       </c>
       <c r="U154" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V154" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W154" t="n">
         <v>1.8</v>
@@ -22398,16 +22402,16 @@
         <v>12</v>
       </c>
       <c r="AC154" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD154" t="n">
         <v>23</v>
       </c>
       <c r="AE154" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF154" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG154" t="n">
         <v>15</v>
@@ -22473,37 +22477,37 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H155" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I155" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J155" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="K155" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L155" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M155" t="n">
         <v>1.05</v>
       </c>
       <c r="N155" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O155" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P155" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R155" t="n">
         <v>2.02</v>
@@ -22515,55 +22519,55 @@
         <v>1.42</v>
       </c>
       <c r="U155" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="V155" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="W155" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X155" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y155" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Z155" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA155" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB155" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC155" t="n">
         <v>12</v>
       </c>
       <c r="AD155" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE155" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AF155" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AG155" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH155" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI155" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AJ155" t="n">
         <v>14.5</v>
       </c>
       <c r="AK155" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL155" t="n">
         <v>15.5</v>
@@ -22572,7 +22576,7 @@
         <v>90</v>
       </c>
       <c r="AN155" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO155" t="n">
         <v>45</v>
@@ -24107,22 +24111,22 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="H167" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I167" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="J167" t="n">
-        <v>4.05</v>
+        <v>4.35</v>
       </c>
       <c r="K167" t="n">
         <v>1.9</v>
       </c>
       <c r="L167" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="M167" t="n">
         <v>1.1</v>
@@ -24134,10 +24138,10 @@
         <v>1.47</v>
       </c>
       <c r="P167" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q167" t="n">
         <v>2.32</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>2.35</v>
       </c>
       <c r="R167" t="n">
         <v>1.47</v>
@@ -24149,13 +24153,13 @@
         <v>1.16</v>
       </c>
       <c r="U167" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V167" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W167" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="X167" t="n">
         <v>1.62</v>
@@ -24164,52 +24168,52 @@
         <v>8</v>
       </c>
       <c r="Z167" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA167" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB167" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC167" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD167" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE167" t="n">
         <v>6.6</v>
       </c>
       <c r="AF167" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AG167" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH167" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI167" t="n">
         <v>101</v>
       </c>
       <c r="AJ167" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AK167" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL167" t="n">
         <v>9.25</v>
       </c>
-      <c r="AL167" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AM167" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AN167" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO167" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP167" t="inlineStr"/>
       <c r="AQ167" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-01.xlsx
@@ -1836,22 +1836,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
         <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K10" t="n">
         <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1860,22 +1860,22 @@
         <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U10" t="n">
         <v>1.33</v>
@@ -1890,10 +1890,10 @@
         <v>1.91</v>
       </c>
       <c r="Y10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA10" t="n">
         <v>8.5</v>
@@ -1920,7 +1920,7 @@
         <v>51</v>
       </c>
       <c r="AI10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ10" t="n">
         <v>17</v>
@@ -1935,10 +1935,10 @@
         <v>67</v>
       </c>
       <c r="AN10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -3264,7 +3264,7 @@
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
         <v>2.63</v>
@@ -3273,7 +3273,7 @@
         <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -3288,10 +3288,10 @@
         <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="n">
         <v>3.75</v>
@@ -3306,10 +3306,10 @@
         <v>2.63</v>
       </c>
       <c r="W20" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X20" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y20" t="n">
         <v>7</v>
@@ -3330,7 +3330,7 @@
         <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF20" t="n">
         <v>6.5</v>
@@ -3342,7 +3342,7 @@
         <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
@@ -3688,10 +3688,10 @@
         <v>6.25</v>
       </c>
       <c r="H23" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J23" t="n">
         <v>5.5</v>
@@ -3700,7 +3700,7 @@
         <v>2.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
@@ -3715,16 +3715,16 @@
         <v>5.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R23" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U23" t="n">
         <v>1.25</v>
@@ -3745,7 +3745,7 @@
         <v>41</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
         <v>67</v>
@@ -3757,7 +3757,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
         <v>9</v>
@@ -3769,13 +3769,13 @@
         <v>41</v>
       </c>
       <c r="AI23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ23" t="n">
         <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
         <v>8.5</v>
@@ -3787,7 +3787,7 @@
         <v>11</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
         <v>1.85</v>
@@ -4266,10 +4266,10 @@
         <v>1.3</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L27" t="n">
         <v>1.73</v>
@@ -4281,43 +4281,43 @@
         <v>17</v>
       </c>
       <c r="O27" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R27" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S27" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="U27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V27" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X27" t="n">
         <v>1.95</v>
       </c>
-      <c r="X27" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Y27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB27" t="n">
         <v>101</v>
@@ -4332,22 +4332,22 @@
         <v>17</v>
       </c>
       <c r="AF27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
         <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AL27" t="n">
         <v>9</v>
@@ -4359,13 +4359,13 @@
         <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4405,61 +4405,61 @@
         <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L28" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N28" t="n">
+        <v>5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S28" t="n">
+        <v>7</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Z28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA28" t="n">
         <v>13</v>
@@ -4474,7 +4474,7 @@
         <v>51</v>
       </c>
       <c r="AE28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF28" t="n">
         <v>6</v>
@@ -4483,7 +4483,7 @@
         <v>21</v>
       </c>
       <c r="AH28" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI28" t="n">
         <v>101</v>
@@ -4501,16 +4501,16 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR28" t="n">
         <v>1.94</v>
@@ -4551,10 +4551,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I29" t="n">
         <v>2.45</v>
@@ -4563,16 +4563,16 @@
         <v>4.33</v>
       </c>
       <c r="K29" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L29" t="n">
         <v>3.4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.67</v>
@@ -4581,10 +4581,10 @@
         <v>2.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="n">
         <v>7</v>
@@ -4593,10 +4593,10 @@
         <v>1.1</v>
       </c>
       <c r="U29" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V29" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W29" t="n">
         <v>2.38</v>
@@ -4611,7 +4611,7 @@
         <v>15</v>
       </c>
       <c r="AA29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB29" t="n">
         <v>41</v>
@@ -4629,7 +4629,7 @@
         <v>6</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>101</v>
@@ -4641,7 +4641,7 @@
         <v>5.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL29" t="n">
         <v>11</v>
@@ -4653,13 +4653,13 @@
         <v>29</v>
       </c>
       <c r="AO29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP29" t="n">
         <v>5.6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AR29" t="n">
         <v>2.1</v>
@@ -4718,13 +4718,13 @@
         <v>7</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
         <v>7</v>
       </c>
       <c r="O30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P30" t="n">
         <v>2.5</v>
@@ -4733,13 +4733,13 @@
         <v>2.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U30" t="n">
         <v>1.57</v>
@@ -4811,10 +4811,10 @@
         <v>1.24</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="31">
@@ -5981,40 +5981,40 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J39" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K39" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M39" t="n">
         <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O39" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R39" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S39" t="n">
         <v>2</v>
@@ -6029,10 +6029,10 @@
         <v>4</v>
       </c>
       <c r="W39" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X39" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y39" t="n">
         <v>9.5</v>
@@ -6047,7 +6047,7 @@
         <v>7.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD39" t="n">
         <v>26</v>
@@ -6056,22 +6056,22 @@
         <v>19</v>
       </c>
       <c r="AF39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG39" t="n">
         <v>23</v>
       </c>
       <c r="AH39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI39" t="n">
         <v>301</v>
       </c>
       <c r="AJ39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL39" t="n">
         <v>34</v>
@@ -6080,10 +6080,10 @@
         <v>151</v>
       </c>
       <c r="AN39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AO39" t="n">
         <v>67</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>51</v>
       </c>
       <c r="AP39" t="n">
         <v>1.8</v>
@@ -6549,22 +6549,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K43" t="n">
         <v>1.95</v>
       </c>
       <c r="L43" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M43" t="n">
         <v>1.1</v>
@@ -6591,10 +6591,10 @@
         <v>1.17</v>
       </c>
       <c r="U43" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V43" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W43" t="n">
         <v>2.1</v>
@@ -6606,22 +6606,22 @@
         <v>6</v>
       </c>
       <c r="Z43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA43" t="n">
         <v>9.5</v>
       </c>
       <c r="AB43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC43" t="n">
         <v>19</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>21</v>
       </c>
       <c r="AD43" t="n">
         <v>41</v>
       </c>
       <c r="AE43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF43" t="n">
         <v>6</v>
@@ -6636,10 +6636,10 @@
         <v>1250</v>
       </c>
       <c r="AJ43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL43" t="n">
         <v>15</v>
@@ -6648,10 +6648,10 @@
         <v>41</v>
       </c>
       <c r="AN43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP43" t="n">
         <v>3.95</v>
@@ -6698,97 +6698,97 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K44" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L44" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O44" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P44" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R44" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S44" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T44" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X44" t="n">
         <v>1.57</v>
-      </c>
-      <c r="V44" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W44" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1.62</v>
       </c>
       <c r="Y44" t="n">
         <v>7.5</v>
       </c>
       <c r="Z44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA44" t="n">
         <v>15</v>
       </c>
-      <c r="AA44" t="n">
-        <v>13</v>
-      </c>
       <c r="AB44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF44" t="n">
         <v>6</v>
       </c>
       <c r="AG44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="n">
         <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AL44" t="n">
         <v>10</v>
@@ -6803,16 +6803,16 @@
         <v>41</v>
       </c>
       <c r="AP44" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="45">
@@ -6847,13 +6847,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
         <v>2.38</v>
@@ -6880,7 +6880,7 @@
         <v>2.15</v>
       </c>
       <c r="R45" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S45" t="n">
         <v>4</v>
@@ -6910,7 +6910,7 @@
         <v>9</v>
       </c>
       <c r="AB45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC45" t="n">
         <v>15</v>
@@ -6934,10 +6934,10 @@
         <v>101</v>
       </c>
       <c r="AJ45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL45" t="n">
         <v>17</v>
@@ -16398,22 +16398,22 @@
         <v>7.5</v>
       </c>
       <c r="M112" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N112" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O112" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P112" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R112" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S112" t="n">
         <v>2.63</v>
@@ -16440,7 +16440,7 @@
         <v>6.5</v>
       </c>
       <c r="AA112" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB112" t="n">
         <v>8.5</v>
@@ -16458,7 +16458,7 @@
         <v>9</v>
       </c>
       <c r="AG112" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH112" t="n">
         <v>51</v>
@@ -16467,13 +16467,13 @@
         <v>301</v>
       </c>
       <c r="AJ112" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK112" t="n">
         <v>41</v>
       </c>
       <c r="AL112" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM112" t="n">
         <v>101</v>
@@ -16525,28 +16525,28 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H113" t="n">
         <v>4.33</v>
       </c>
       <c r="I113" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J113" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K113" t="n">
         <v>2.38</v>
       </c>
       <c r="L113" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M113" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N113" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O113" t="n">
         <v>1.25</v>
@@ -16555,10 +16555,10 @@
         <v>3.75</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R113" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S113" t="n">
         <v>3</v>
@@ -16573,40 +16573,40 @@
         <v>3</v>
       </c>
       <c r="W113" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X113" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y113" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z113" t="n">
         <v>7</v>
-      </c>
-      <c r="Z113" t="n">
-        <v>6.5</v>
       </c>
       <c r="AA113" t="n">
         <v>8.5</v>
       </c>
       <c r="AB113" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC113" t="n">
         <v>12</v>
       </c>
       <c r="AD113" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE113" t="n">
         <v>11</v>
       </c>
       <c r="AF113" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG113" t="n">
         <v>19</v>
       </c>
       <c r="AH113" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI113" t="n">
         <v>351</v>
@@ -16615,7 +16615,7 @@
         <v>17</v>
       </c>
       <c r="AK113" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL113" t="n">
         <v>21</v>
@@ -16831,22 +16831,22 @@
         <v>15</v>
       </c>
       <c r="O115" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P115" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R115" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S115" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T115" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U115" t="n">
         <v>1.33</v>
@@ -18368,22 +18368,22 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H126" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I126" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J126" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K126" t="n">
         <v>2.2</v>
       </c>
       <c r="L126" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M126" t="n">
         <v>1.06</v>
@@ -18416,22 +18416,22 @@
         <v>2.75</v>
       </c>
       <c r="W126" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X126" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y126" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z126" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA126" t="n">
         <v>8.5</v>
       </c>
       <c r="AB126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC126" t="n">
         <v>13</v>
@@ -18443,22 +18443,22 @@
         <v>9.5</v>
       </c>
       <c r="AF126" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG126" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH126" t="n">
         <v>67</v>
       </c>
       <c r="AI126" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AJ126" t="n">
         <v>15</v>
       </c>
       <c r="AK126" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL126" t="n">
         <v>19</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-01.xlsx
@@ -4700,16 +4700,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K30" t="n">
         <v>2</v>
@@ -4718,13 +4718,13 @@
         <v>7</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P30" t="n">
         <v>2.5</v>
@@ -4733,19 +4733,19 @@
         <v>2.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U30" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V30" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W30" t="n">
         <v>2.5</v>
@@ -4778,7 +4778,7 @@
         <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH30" t="n">
         <v>101</v>
@@ -4787,19 +4787,19 @@
         <v>101</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM30" t="n">
         <v>81</v>
       </c>
       <c r="AN30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO30" t="n">
         <v>67</v>
@@ -4811,10 +4811,10 @@
         <v>1.24</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="31">
@@ -6847,40 +6847,40 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J45" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K45" t="n">
         <v>2.1</v>
       </c>
       <c r="L45" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O45" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R45" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S45" t="n">
         <v>4</v>
@@ -6889,19 +6889,19 @@
         <v>1.22</v>
       </c>
       <c r="U45" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V45" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W45" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X45" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y45" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z45" t="n">
         <v>7</v>
@@ -6910,7 +6910,7 @@
         <v>9</v>
       </c>
       <c r="AB45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC45" t="n">
         <v>15</v>
@@ -6919,49 +6919,49 @@
         <v>34</v>
       </c>
       <c r="AE45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF45" t="n">
         <v>7</v>
       </c>
       <c r="AG45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH45" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="n">
         <v>101</v>
       </c>
       <c r="AJ45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM45" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN45" t="n">
         <v>51</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>41</v>
       </c>
       <c r="AO45" t="n">
         <v>51</v>
       </c>
       <c r="AP45" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AR45" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="46">
@@ -16666,40 +16666,40 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H114" t="n">
+        <v>4</v>
+      </c>
+      <c r="I114" t="n">
         <v>4.2</v>
       </c>
-      <c r="I114" t="n">
-        <v>4.75</v>
-      </c>
       <c r="J114" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K114" t="n">
         <v>2.2</v>
       </c>
       <c r="L114" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M114" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N114" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O114" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P114" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R114" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S114" t="n">
         <v>3.4</v>
@@ -16714,25 +16714,25 @@
         <v>2.75</v>
       </c>
       <c r="W114" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X114" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y114" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z114" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA114" t="n">
         <v>8.5</v>
       </c>
       <c r="AB114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC114" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD114" t="n">
         <v>26</v>
@@ -16741,31 +16741,31 @@
         <v>11</v>
       </c>
       <c r="AF114" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG114" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH114" t="n">
         <v>51</v>
       </c>
       <c r="AI114" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK114" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL114" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM114" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN114" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO114" t="n">
         <v>41</v>
@@ -16807,16 +16807,16 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H115" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I115" t="n">
         <v>4.75</v>
       </c>
       <c r="J115" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K115" t="n">
         <v>2.38</v>
@@ -16825,16 +16825,16 @@
         <v>5</v>
       </c>
       <c r="M115" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N115" t="n">
         <v>15</v>
       </c>
       <c r="O115" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P115" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q115" t="n">
         <v>1.7</v>
@@ -16843,10 +16843,10 @@
         <v>2.1</v>
       </c>
       <c r="S115" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="T115" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="U115" t="n">
         <v>1.33</v>
@@ -16855,13 +16855,13 @@
         <v>3.25</v>
       </c>
       <c r="W115" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X115" t="n">
         <v>2.05</v>
       </c>
       <c r="Y115" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z115" t="n">
         <v>8.5</v>
@@ -16873,13 +16873,13 @@
         <v>13</v>
       </c>
       <c r="AC115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD115" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE115" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF115" t="n">
         <v>8</v>
@@ -17085,22 +17085,22 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="H117" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I117" t="n">
-        <v>4.55</v>
+        <v>5.6</v>
       </c>
       <c r="J117" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="K117" t="n">
         <v>2.15</v>
       </c>
       <c r="L117" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
@@ -17108,78 +17108,78 @@
         <v>1.25</v>
       </c>
       <c r="P117" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q117" t="n">
         <v>1.75</v>
       </c>
       <c r="R117" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S117" t="n">
         <v>2.72</v>
       </c>
       <c r="T117" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="X117" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="Y117" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF117" t="n">
         <v>7.3</v>
       </c>
-      <c r="Z117" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA117" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB117" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC117" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD117" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>7.1</v>
-      </c>
       <c r="AG117" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH117" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI117" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ117" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK117" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AL117" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AM117" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN117" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AO117" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AP117" t="inlineStr"/>
       <c r="AQ117" t="inlineStr"/>
